--- a/02_外部設計/03_画面一覧.xlsx
+++ b/02_外部設計/03_画面一覧.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06893EC0-2375-4653-8375-5C71D5EEE203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショッピング機能" sheetId="2" r:id="rId1"/>
@@ -23,8 +24,80 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2B3EB1FE-AA04-415F-8FDB-197767C607D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{49AD6396-FDBE-462F-8D1D-18EB4FCBD727}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="142">
   <si>
     <t>業務ID</t>
     <rPh sb="0" eb="2">
@@ -1458,18 +1531,26 @@
   </si>
   <si>
     <t>ログイン画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奈良田</t>
+    <rPh sb="0" eb="3">
+      <t>ナラタ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1580,6 +1661,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1607,7 +1703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1898,6 +1994,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1908,7 +2041,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1937,66 +2070,117 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2057,20 +2241,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2093,169 +2352,55 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="4"/>
-    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2537,86 +2682,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IA27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z28" sqref="X28:Z30"/>
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="12.6"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:235" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="34" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="34" t="s">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="37" t="s">
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="121">
+        <v>45537</v>
+      </c>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
+      <c r="AR1" s="121"/>
+      <c r="AS1" s="121"/>
+      <c r="AT1" s="121"/>
+      <c r="AU1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="41">
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="58">
         <v>1</v>
       </c>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
@@ -2797,69 +2944,71 @@
       <c r="IA1" s="1"/>
     </row>
     <row r="2" spans="1:235" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="47" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="48" t="s">
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="47" t="s">
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="118"/>
+      <c r="BA2" s="119"/>
+      <c r="BB2" s="119"/>
+      <c r="BC2" s="119"/>
+      <c r="BD2" s="119"/>
+      <c r="BE2" s="120"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
@@ -3039,7 +3188,7 @@
       <c r="HZ2" s="1"/>
       <c r="IA2" s="1"/>
     </row>
-    <row r="3" spans="1:235" ht="13.7" customHeight="1" thickTop="1">
+    <row r="3" spans="1:235" ht="13.65" customHeight="1" thickTop="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3276,90 +3425,90 @@
       <c r="HZ3" s="1"/>
       <c r="IA3" s="1"/>
     </row>
-    <row r="4" spans="1:235" ht="13.7" customHeight="1">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:235" ht="13.65" customHeight="1">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="30" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="30" t="s">
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="19" t="s">
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19" t="s">
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="46"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="46"/>
+      <c r="BE4" s="46"/>
+      <c r="BF4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="19"/>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="19"/>
-      <c r="BQ4" s="19"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="46"/>
+      <c r="BI4" s="46"/>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="46"/>
+      <c r="BM4" s="46"/>
+      <c r="BN4" s="46"/>
+      <c r="BO4" s="46"/>
+      <c r="BP4" s="46"/>
+      <c r="BQ4" s="46"/>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
@@ -3528,75 +3677,75 @@
       <c r="IA4" s="1"/>
     </row>
     <row r="5" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="19"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19"/>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="19"/>
-      <c r="BP5" s="19"/>
-      <c r="BQ5" s="19"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
       <c r="BT5" s="1"/>
@@ -3765,87 +3914,87 @@
       <c r="IA5" s="1"/>
     </row>
     <row r="6" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="15" t="s">
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15" t="s">
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="20" t="s">
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="20"/>
-      <c r="BA6" s="20"/>
-      <c r="BB6" s="20"/>
-      <c r="BC6" s="20"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="20"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="34"/>
       <c r="CD6" s="1"/>
       <c r="CE6" s="1"/>
       <c r="CF6" s="1"/>
@@ -4002,81 +4151,81 @@
       <c r="IA6" s="1"/>
     </row>
     <row r="7" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="16" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="16" t="s">
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="50" t="s">
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="51"/>
-      <c r="AV7" s="51"/>
-      <c r="AW7" s="51"/>
-      <c r="AX7" s="51"/>
-      <c r="AY7" s="51"/>
-      <c r="AZ7" s="51"/>
-      <c r="BA7" s="51"/>
-      <c r="BB7" s="51"/>
-      <c r="BC7" s="51"/>
-      <c r="BD7" s="51"/>
-      <c r="BE7" s="52"/>
-      <c r="BF7" s="10"/>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="10"/>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="10"/>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="10"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="10"/>
-      <c r="BQ7" s="10"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="32"/>
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="34"/>
+      <c r="BL7" s="34"/>
+      <c r="BM7" s="34"/>
+      <c r="BN7" s="34"/>
+      <c r="BO7" s="34"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="34"/>
       <c r="CD7" s="1"/>
       <c r="CE7" s="1"/>
       <c r="CF7" s="1"/>
@@ -4233,83 +4382,83 @@
       <c r="IA7" s="1"/>
     </row>
     <row r="8" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="15" t="s">
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15" t="s">
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="20" t="s">
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="20"/>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="20"/>
-      <c r="BF8" s="10"/>
-      <c r="BG8" s="10"/>
-      <c r="BH8" s="10"/>
-      <c r="BI8" s="10"/>
-      <c r="BJ8" s="10"/>
-      <c r="BK8" s="10"/>
-      <c r="BL8" s="10"/>
-      <c r="BM8" s="10"/>
-      <c r="BN8" s="10"/>
-      <c r="BO8" s="10"/>
-      <c r="BP8" s="10"/>
-      <c r="BQ8" s="10"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="34"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="34"/>
+      <c r="BN8" s="34"/>
+      <c r="BO8" s="34"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="34"/>
       <c r="CD8" s="1"/>
       <c r="CE8" s="1"/>
       <c r="CF8" s="1"/>
@@ -4466,81 +4615,81 @@
       <c r="IA8" s="1"/>
     </row>
     <row r="9" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="15" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15" t="s">
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="20" t="s">
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="10"/>
-      <c r="BK9" s="10"/>
-      <c r="BL9" s="10"/>
-      <c r="BM9" s="10"/>
-      <c r="BN9" s="10"/>
-      <c r="BO9" s="10"/>
-      <c r="BP9" s="10"/>
-      <c r="BQ9" s="10"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
       <c r="CD9" s="1"/>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
@@ -4697,81 +4846,81 @@
       <c r="IA9" s="1"/>
     </row>
     <row r="10" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="15" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15" t="s">
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="20" t="s">
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="20"/>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="20"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="20"/>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-      <c r="BK10" s="10"/>
-      <c r="BL10" s="10"/>
-      <c r="BM10" s="10"/>
-      <c r="BN10" s="10"/>
-      <c r="BO10" s="10"/>
-      <c r="BP10" s="10"/>
-      <c r="BQ10" s="10"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
+      <c r="BJ10" s="34"/>
+      <c r="BK10" s="34"/>
+      <c r="BL10" s="34"/>
+      <c r="BM10" s="34"/>
+      <c r="BN10" s="34"/>
+      <c r="BO10" s="34"/>
+      <c r="BP10" s="34"/>
+      <c r="BQ10" s="34"/>
       <c r="CD10" s="1"/>
       <c r="CE10" s="1"/>
       <c r="CF10" s="1"/>
@@ -4928,81 +5077,81 @@
       <c r="IA10" s="1"/>
     </row>
     <row r="11" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="15" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15" t="s">
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="20" t="s">
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="20"/>
-      <c r="BB11" s="20"/>
-      <c r="BC11" s="20"/>
-      <c r="BD11" s="20"/>
-      <c r="BE11" s="20"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10"/>
-      <c r="BK11" s="10"/>
-      <c r="BL11" s="10"/>
-      <c r="BM11" s="10"/>
-      <c r="BN11" s="10"/>
-      <c r="BO11" s="10"/>
-      <c r="BP11" s="10"/>
-      <c r="BQ11" s="10"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="34"/>
       <c r="CD11" s="1"/>
       <c r="CE11" s="1"/>
       <c r="CF11" s="1"/>
@@ -5159,81 +5308,81 @@
       <c r="IA11" s="1"/>
     </row>
     <row r="12" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="54" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15" t="s">
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="20" t="s">
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="20"/>
-      <c r="BF12" s="10"/>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10"/>
-      <c r="BK12" s="10"/>
-      <c r="BL12" s="10"/>
-      <c r="BM12" s="10"/>
-      <c r="BN12" s="10"/>
-      <c r="BO12" s="10"/>
-      <c r="BP12" s="10"/>
-      <c r="BQ12" s="10"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="34"/>
+      <c r="BI12" s="34"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="34"/>
+      <c r="BL12" s="34"/>
+      <c r="BM12" s="34"/>
+      <c r="BN12" s="34"/>
+      <c r="BO12" s="34"/>
+      <c r="BP12" s="34"/>
+      <c r="BQ12" s="34"/>
       <c r="CD12" s="1"/>
       <c r="CE12" s="1"/>
       <c r="CF12" s="1"/>
@@ -5390,83 +5539,83 @@
       <c r="IA12" s="1"/>
     </row>
     <row r="13" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="106" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="16" t="s">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="16" t="s">
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="12" t="s">
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="13"/>
-      <c r="BB13" s="13"/>
-      <c r="BC13" s="13"/>
-      <c r="BD13" s="13"/>
-      <c r="BE13" s="14"/>
-      <c r="BF13" s="115"/>
-      <c r="BG13" s="116"/>
-      <c r="BH13" s="116"/>
-      <c r="BI13" s="116"/>
-      <c r="BJ13" s="116"/>
-      <c r="BK13" s="116"/>
-      <c r="BL13" s="116"/>
-      <c r="BM13" s="116"/>
-      <c r="BN13" s="116"/>
-      <c r="BO13" s="116"/>
-      <c r="BP13" s="116"/>
-      <c r="BQ13" s="117"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="30"/>
+      <c r="BF13" s="19"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="21"/>
       <c r="CD13" s="1"/>
       <c r="CE13" s="1"/>
       <c r="CF13" s="1"/>
@@ -5623,81 +5772,81 @@
       <c r="IA13" s="1"/>
     </row>
     <row r="14" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="53" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53" t="s">
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="21" t="s">
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="22"/>
-      <c r="BG14" s="22"/>
-      <c r="BH14" s="22"/>
-      <c r="BI14" s="22"/>
-      <c r="BJ14" s="22"/>
-      <c r="BK14" s="22"/>
-      <c r="BL14" s="22"/>
-      <c r="BM14" s="22"/>
-      <c r="BN14" s="22"/>
-      <c r="BO14" s="22"/>
-      <c r="BP14" s="22"/>
-      <c r="BQ14" s="22"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="23"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="23"/>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="24"/>
+      <c r="BH14" s="24"/>
+      <c r="BI14" s="24"/>
+      <c r="BJ14" s="24"/>
+      <c r="BK14" s="24"/>
+      <c r="BL14" s="24"/>
+      <c r="BM14" s="24"/>
+      <c r="BN14" s="24"/>
+      <c r="BO14" s="24"/>
+      <c r="BP14" s="24"/>
+      <c r="BQ14" s="24"/>
       <c r="CD14" s="1"/>
       <c r="CE14" s="1"/>
       <c r="CF14" s="1"/>
@@ -5854,81 +6003,81 @@
       <c r="IA14" s="1"/>
     </row>
     <row r="15" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="53" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53" t="s">
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="21" t="s">
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="22"/>
-      <c r="BG15" s="22"/>
-      <c r="BH15" s="22"/>
-      <c r="BI15" s="22"/>
-      <c r="BJ15" s="22"/>
-      <c r="BK15" s="22"/>
-      <c r="BL15" s="22"/>
-      <c r="BM15" s="22"/>
-      <c r="BN15" s="22"/>
-      <c r="BO15" s="22"/>
-      <c r="BP15" s="22"/>
-      <c r="BQ15" s="22"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="23"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="23"/>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="24"/>
+      <c r="BG15" s="24"/>
+      <c r="BH15" s="24"/>
+      <c r="BI15" s="24"/>
+      <c r="BJ15" s="24"/>
+      <c r="BK15" s="24"/>
+      <c r="BL15" s="24"/>
+      <c r="BM15" s="24"/>
+      <c r="BN15" s="24"/>
+      <c r="BO15" s="24"/>
+      <c r="BP15" s="24"/>
+      <c r="BQ15" s="24"/>
       <c r="CD15" s="1"/>
       <c r="CE15" s="1"/>
       <c r="CF15" s="1"/>
@@ -6085,81 +6234,81 @@
       <c r="IA15" s="1"/>
     </row>
     <row r="16" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="53" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53" t="s">
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="53"/>
-      <c r="AJ16" s="53"/>
-      <c r="AK16" s="21" t="s">
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
-      <c r="BK16" s="10"/>
-      <c r="BL16" s="10"/>
-      <c r="BM16" s="10"/>
-      <c r="BN16" s="10"/>
-      <c r="BO16" s="10"/>
-      <c r="BP16" s="10"/>
-      <c r="BQ16" s="10"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="34"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="34"/>
+      <c r="BJ16" s="34"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="34"/>
+      <c r="BM16" s="34"/>
+      <c r="BN16" s="34"/>
+      <c r="BO16" s="34"/>
+      <c r="BP16" s="34"/>
+      <c r="BQ16" s="34"/>
       <c r="CD16" s="1"/>
       <c r="CE16" s="1"/>
       <c r="CF16" s="1"/>
@@ -6316,81 +6465,81 @@
       <c r="IA16" s="1"/>
     </row>
     <row r="17" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="15" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15" t="s">
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="20" t="s">
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="20"/>
-      <c r="AX17" s="20"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="20"/>
-      <c r="BA17" s="20"/>
-      <c r="BB17" s="20"/>
-      <c r="BC17" s="20"/>
-      <c r="BD17" s="20"/>
-      <c r="BE17" s="20"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="10"/>
-      <c r="BK17" s="10"/>
-      <c r="BL17" s="10"/>
-      <c r="BM17" s="10"/>
-      <c r="BN17" s="10"/>
-      <c r="BO17" s="10"/>
-      <c r="BP17" s="10"/>
-      <c r="BQ17" s="10"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="37"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="34"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="34"/>
+      <c r="BJ17" s="34"/>
+      <c r="BK17" s="34"/>
+      <c r="BL17" s="34"/>
+      <c r="BM17" s="34"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="34"/>
+      <c r="BP17" s="34"/>
+      <c r="BQ17" s="34"/>
       <c r="CD17" s="1"/>
       <c r="CE17" s="1"/>
       <c r="CF17" s="1"/>
@@ -6547,81 +6696,81 @@
       <c r="IA17" s="1"/>
     </row>
     <row r="18" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="15" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15" t="s">
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="20" t="s">
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="20"/>
-      <c r="AU18" s="20"/>
-      <c r="AV18" s="20"/>
-      <c r="AW18" s="20"/>
-      <c r="AX18" s="20"/>
-      <c r="AY18" s="20"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="20"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="20"/>
-      <c r="BE18" s="20"/>
-      <c r="BF18" s="10"/>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="10"/>
-      <c r="BJ18" s="10"/>
-      <c r="BK18" s="10"/>
-      <c r="BL18" s="10"/>
-      <c r="BM18" s="10"/>
-      <c r="BN18" s="10"/>
-      <c r="BO18" s="10"/>
-      <c r="BP18" s="10"/>
-      <c r="BQ18" s="10"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="34"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="34"/>
+      <c r="BJ18" s="34"/>
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="34"/>
+      <c r="BM18" s="34"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="34"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="34"/>
       <c r="CD18" s="1"/>
       <c r="CE18" s="1"/>
       <c r="CF18" s="1"/>
@@ -6778,81 +6927,81 @@
       <c r="IA18" s="1"/>
     </row>
     <row r="19" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="15" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15" t="s">
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="20" t="s">
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="20"/>
-      <c r="BA19" s="20"/>
-      <c r="BB19" s="20"/>
-      <c r="BC19" s="20"/>
-      <c r="BD19" s="20"/>
-      <c r="BE19" s="20"/>
-      <c r="BF19" s="10"/>
-      <c r="BG19" s="10"/>
-      <c r="BH19" s="10"/>
-      <c r="BI19" s="10"/>
-      <c r="BJ19" s="10"/>
-      <c r="BK19" s="10"/>
-      <c r="BL19" s="10"/>
-      <c r="BM19" s="10"/>
-      <c r="BN19" s="10"/>
-      <c r="BO19" s="10"/>
-      <c r="BP19" s="10"/>
-      <c r="BQ19" s="10"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="37"/>
+      <c r="AT19" s="37"/>
+      <c r="AU19" s="37"/>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="37"/>
+      <c r="AX19" s="37"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="37"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="37"/>
+      <c r="BD19" s="37"/>
+      <c r="BE19" s="37"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="34"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="34"/>
+      <c r="BJ19" s="34"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="34"/>
+      <c r="BM19" s="34"/>
+      <c r="BN19" s="34"/>
+      <c r="BO19" s="34"/>
+      <c r="BP19" s="34"/>
+      <c r="BQ19" s="34"/>
       <c r="CD19" s="1"/>
       <c r="CE19" s="1"/>
       <c r="CF19" s="1"/>
@@ -7009,389 +7158,389 @@
       <c r="IA19" s="1"/>
     </row>
     <row r="20" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="15" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15" t="s">
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="20" t="s">
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="20"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="20"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="20"/>
-      <c r="BA20" s="20"/>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="20"/>
-      <c r="BD20" s="20"/>
-      <c r="BE20" s="20"/>
-      <c r="BF20" s="10"/>
-      <c r="BG20" s="10"/>
-      <c r="BH20" s="10"/>
-      <c r="BI20" s="10"/>
-      <c r="BJ20" s="10"/>
-      <c r="BK20" s="10"/>
-      <c r="BL20" s="10"/>
-      <c r="BM20" s="10"/>
-      <c r="BN20" s="10"/>
-      <c r="BO20" s="10"/>
-      <c r="BP20" s="10"/>
-      <c r="BQ20" s="10"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="37"/>
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="34"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="34"/>
+      <c r="BJ20" s="34"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="34"/>
+      <c r="BM20" s="34"/>
+      <c r="BN20" s="34"/>
+      <c r="BO20" s="34"/>
+      <c r="BP20" s="34"/>
+      <c r="BQ20" s="34"/>
     </row>
     <row r="21" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="15" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15" t="s">
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="20" t="s">
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="20"/>
-      <c r="BA21" s="20"/>
-      <c r="BB21" s="20"/>
-      <c r="BC21" s="20"/>
-      <c r="BD21" s="20"/>
-      <c r="BE21" s="20"/>
-      <c r="BF21" s="10"/>
-      <c r="BG21" s="10"/>
-      <c r="BH21" s="10"/>
-      <c r="BI21" s="10"/>
-      <c r="BJ21" s="10"/>
-      <c r="BK21" s="10"/>
-      <c r="BL21" s="10"/>
-      <c r="BM21" s="10"/>
-      <c r="BN21" s="10"/>
-      <c r="BO21" s="10"/>
-      <c r="BP21" s="10"/>
-      <c r="BQ21" s="10"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="37"/>
+      <c r="AS21" s="37"/>
+      <c r="AT21" s="37"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
+      <c r="AW21" s="37"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="37"/>
+      <c r="BB21" s="37"/>
+      <c r="BC21" s="37"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="37"/>
+      <c r="BF21" s="34"/>
+      <c r="BG21" s="34"/>
+      <c r="BH21" s="34"/>
+      <c r="BI21" s="34"/>
+      <c r="BJ21" s="34"/>
+      <c r="BK21" s="34"/>
+      <c r="BL21" s="34"/>
+      <c r="BM21" s="34"/>
+      <c r="BN21" s="34"/>
+      <c r="BO21" s="34"/>
+      <c r="BP21" s="34"/>
+      <c r="BQ21" s="34"/>
     </row>
     <row r="22" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="15" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15" t="s">
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="20" t="s">
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="20"/>
-      <c r="BC22" s="20"/>
-      <c r="BD22" s="20"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="10"/>
-      <c r="BG22" s="10"/>
-      <c r="BH22" s="10"/>
-      <c r="BI22" s="10"/>
-      <c r="BJ22" s="10"/>
-      <c r="BK22" s="10"/>
-      <c r="BL22" s="10"/>
-      <c r="BM22" s="10"/>
-      <c r="BN22" s="10"/>
-      <c r="BO22" s="10"/>
-      <c r="BP22" s="10"/>
-      <c r="BQ22" s="10"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+      <c r="AS22" s="37"/>
+      <c r="AT22" s="37"/>
+      <c r="AU22" s="37"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="37"/>
+      <c r="AX22" s="37"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="37"/>
+      <c r="BD22" s="37"/>
+      <c r="BE22" s="37"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="34"/>
+      <c r="BH22" s="34"/>
+      <c r="BI22" s="34"/>
+      <c r="BJ22" s="34"/>
+      <c r="BK22" s="34"/>
+      <c r="BL22" s="34"/>
+      <c r="BM22" s="34"/>
+      <c r="BN22" s="34"/>
+      <c r="BO22" s="34"/>
+      <c r="BP22" s="34"/>
+      <c r="BQ22" s="34"/>
     </row>
     <row r="23" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="15" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15" t="s">
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="20" t="s">
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="20"/>
-      <c r="AW23" s="20"/>
-      <c r="AX23" s="20"/>
-      <c r="AY23" s="20"/>
-      <c r="AZ23" s="20"/>
-      <c r="BA23" s="20"/>
-      <c r="BB23" s="20"/>
-      <c r="BC23" s="20"/>
-      <c r="BD23" s="20"/>
-      <c r="BE23" s="20"/>
-      <c r="BF23" s="10"/>
-      <c r="BG23" s="10"/>
-      <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
-      <c r="BJ23" s="10"/>
-      <c r="BK23" s="10"/>
-      <c r="BL23" s="10"/>
-      <c r="BM23" s="10"/>
-      <c r="BN23" s="10"/>
-      <c r="BO23" s="10"/>
-      <c r="BP23" s="10"/>
-      <c r="BQ23" s="10"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="37"/>
+      <c r="AS23" s="37"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="37"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="37"/>
+      <c r="BB23" s="37"/>
+      <c r="BC23" s="37"/>
+      <c r="BD23" s="37"/>
+      <c r="BE23" s="37"/>
+      <c r="BF23" s="34"/>
+      <c r="BG23" s="34"/>
+      <c r="BH23" s="34"/>
+      <c r="BI23" s="34"/>
+      <c r="BJ23" s="34"/>
+      <c r="BK23" s="34"/>
+      <c r="BL23" s="34"/>
+      <c r="BM23" s="34"/>
+      <c r="BN23" s="34"/>
+      <c r="BO23" s="34"/>
+      <c r="BP23" s="34"/>
+      <c r="BQ23" s="34"/>
     </row>
     <row r="24" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="15" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15" t="s">
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="20" t="s">
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
-      <c r="AU24" s="20"/>
-      <c r="AV24" s="20"/>
-      <c r="AW24" s="20"/>
-      <c r="AX24" s="20"/>
-      <c r="AY24" s="20"/>
-      <c r="AZ24" s="20"/>
-      <c r="BA24" s="20"/>
-      <c r="BB24" s="20"/>
-      <c r="BC24" s="20"/>
-      <c r="BD24" s="20"/>
-      <c r="BE24" s="20"/>
-      <c r="BF24" s="10"/>
-      <c r="BG24" s="10"/>
-      <c r="BH24" s="10"/>
-      <c r="BI24" s="10"/>
-      <c r="BJ24" s="10"/>
-      <c r="BK24" s="10"/>
-      <c r="BL24" s="10"/>
-      <c r="BM24" s="10"/>
-      <c r="BN24" s="10"/>
-      <c r="BO24" s="10"/>
-      <c r="BP24" s="10"/>
-      <c r="BQ24" s="10"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="37"/>
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="34"/>
+      <c r="BG24" s="34"/>
+      <c r="BH24" s="34"/>
+      <c r="BI24" s="34"/>
+      <c r="BJ24" s="34"/>
+      <c r="BK24" s="34"/>
+      <c r="BL24" s="34"/>
+      <c r="BM24" s="34"/>
+      <c r="BN24" s="34"/>
+      <c r="BO24" s="34"/>
+      <c r="BP24" s="34"/>
+      <c r="BQ24" s="34"/>
     </row>
     <row r="25" spans="1:235">
       <c r="A25" s="7"/>
@@ -7454,18 +7603,59 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="K13:Q24"/>
-    <mergeCell ref="BF13:BQ13"/>
-    <mergeCell ref="R14:Z14"/>
-    <mergeCell ref="AA14:AJ14"/>
-    <mergeCell ref="AK14:BE14"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AA15:AJ15"/>
-    <mergeCell ref="AK15:BE15"/>
-    <mergeCell ref="BF14:BQ14"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="AA13:AJ13"/>
-    <mergeCell ref="AK13:BE13"/>
+    <mergeCell ref="R8:Z8"/>
+    <mergeCell ref="AA8:AJ8"/>
+    <mergeCell ref="R18:Z18"/>
+    <mergeCell ref="AA18:AJ18"/>
+    <mergeCell ref="R17:Z17"/>
+    <mergeCell ref="BF4:BQ5"/>
+    <mergeCell ref="BF16:BQ16"/>
+    <mergeCell ref="BF17:BQ17"/>
+    <mergeCell ref="AK19:BE19"/>
+    <mergeCell ref="AK20:BE20"/>
+    <mergeCell ref="AK21:BE21"/>
+    <mergeCell ref="AK22:BE22"/>
+    <mergeCell ref="AK23:BE23"/>
+    <mergeCell ref="AK24:BE24"/>
+    <mergeCell ref="AK17:BE17"/>
+    <mergeCell ref="AK16:BE16"/>
+    <mergeCell ref="BF15:BQ15"/>
+    <mergeCell ref="AK8:BE8"/>
+    <mergeCell ref="AK12:BE12"/>
+    <mergeCell ref="AK18:BE18"/>
+    <mergeCell ref="BF6:BQ6"/>
+    <mergeCell ref="BF11:BQ11"/>
+    <mergeCell ref="BF12:BQ12"/>
+    <mergeCell ref="BF24:BQ24"/>
+    <mergeCell ref="BF23:BQ23"/>
+    <mergeCell ref="BF18:BQ18"/>
+    <mergeCell ref="BF19:BQ19"/>
+    <mergeCell ref="BF20:BQ20"/>
+    <mergeCell ref="BF21:BQ21"/>
+    <mergeCell ref="AK6:BE6"/>
+    <mergeCell ref="AZ1:BE1"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="R4:Z5"/>
+    <mergeCell ref="AA4:AJ5"/>
+    <mergeCell ref="AK4:BE5"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="D6:J24"/>
+    <mergeCell ref="A6:C24"/>
+    <mergeCell ref="R19:Z19"/>
+    <mergeCell ref="R20:Z20"/>
     <mergeCell ref="R7:Z7"/>
     <mergeCell ref="AA7:AJ7"/>
     <mergeCell ref="AK7:BE7"/>
@@ -7489,162 +7679,124 @@
     <mergeCell ref="R12:Z12"/>
     <mergeCell ref="AA12:AJ12"/>
     <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="AA6:AJ6"/>
+    <mergeCell ref="K13:Q24"/>
+    <mergeCell ref="BF13:BQ13"/>
+    <mergeCell ref="R14:Z14"/>
+    <mergeCell ref="AA14:AJ14"/>
+    <mergeCell ref="AK14:BE14"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AA15:AJ15"/>
+    <mergeCell ref="AK15:BE15"/>
+    <mergeCell ref="BF14:BQ14"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="AA13:AJ13"/>
+    <mergeCell ref="AK13:BE13"/>
     <mergeCell ref="AA17:AJ17"/>
     <mergeCell ref="AA19:AJ19"/>
     <mergeCell ref="AA20:AJ20"/>
     <mergeCell ref="AA21:AJ21"/>
     <mergeCell ref="AA23:AJ23"/>
     <mergeCell ref="AA24:AJ24"/>
-    <mergeCell ref="AA6:AJ6"/>
-    <mergeCell ref="AK6:BE6"/>
-    <mergeCell ref="AZ1:BE1"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="R4:Z5"/>
-    <mergeCell ref="AA4:AJ5"/>
-    <mergeCell ref="AK4:BE5"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="BF4:BQ5"/>
-    <mergeCell ref="BF16:BQ16"/>
-    <mergeCell ref="BF17:BQ17"/>
-    <mergeCell ref="AK19:BE19"/>
-    <mergeCell ref="AK20:BE20"/>
-    <mergeCell ref="AK21:BE21"/>
-    <mergeCell ref="AK22:BE22"/>
-    <mergeCell ref="AK23:BE23"/>
-    <mergeCell ref="AK24:BE24"/>
-    <mergeCell ref="AK17:BE17"/>
-    <mergeCell ref="AK16:BE16"/>
-    <mergeCell ref="BF15:BQ15"/>
-    <mergeCell ref="AK8:BE8"/>
-    <mergeCell ref="AK12:BE12"/>
-    <mergeCell ref="AK18:BE18"/>
-    <mergeCell ref="BF6:BQ6"/>
-    <mergeCell ref="BF11:BQ11"/>
-    <mergeCell ref="BF12:BQ12"/>
-    <mergeCell ref="BF24:BQ24"/>
-    <mergeCell ref="D6:J24"/>
-    <mergeCell ref="A6:C24"/>
-    <mergeCell ref="BF23:BQ23"/>
-    <mergeCell ref="BF18:BQ18"/>
-    <mergeCell ref="BF19:BQ19"/>
-    <mergeCell ref="BF20:BQ20"/>
-    <mergeCell ref="BF21:BQ21"/>
     <mergeCell ref="BF22:BQ22"/>
-    <mergeCell ref="R19:Z19"/>
-    <mergeCell ref="R20:Z20"/>
     <mergeCell ref="R21:Z21"/>
     <mergeCell ref="R22:Z22"/>
     <mergeCell ref="R23:Z23"/>
     <mergeCell ref="R24:Z24"/>
     <mergeCell ref="AA22:AJ22"/>
-    <mergeCell ref="R8:Z8"/>
-    <mergeCell ref="AA8:AJ8"/>
-    <mergeCell ref="R18:Z18"/>
-    <mergeCell ref="AA18:AJ18"/>
-    <mergeCell ref="R17:Z17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59015748031496063" right="0.59015748031496063" top="0.8271653543307087" bottom="1.2208661417322835" header="0.78740157480314954" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="57" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:HO25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="BG10" sqref="BG10"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="16384" width="3.125" style="5"/>
+    <col min="1" max="16384" width="3.09765625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:223" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="34" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="34" t="s">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="37" t="s">
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="53">
+        <v>45537</v>
+      </c>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="90">
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="86">
         <v>2</v>
       </c>
-      <c r="AX1" s="91"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
       <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
       <c r="BH1" s="4"/>
@@ -7813,69 +7965,71 @@
       <c r="HO1" s="4"/>
     </row>
     <row r="2" spans="1:223" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="47" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="48" t="s">
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="47" t="s">
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="92"/>
+      <c r="BC2" s="92"/>
+      <c r="BD2" s="92"/>
+      <c r="BE2" s="92"/>
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
@@ -8043,7 +8197,7 @@
       <c r="HN2" s="4"/>
       <c r="HO2" s="4"/>
     </row>
-    <row r="3" spans="1:223" ht="13.7" customHeight="1" thickTop="1">
+    <row r="3" spans="1:223" ht="13.65" customHeight="1" thickTop="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -8268,7 +8422,7 @@
       <c r="HN3" s="4"/>
       <c r="HO3" s="4"/>
     </row>
-    <row r="4" spans="1:223" ht="13.7" customHeight="1">
+    <row r="4" spans="1:223" ht="13.65" customHeight="1">
       <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
@@ -8292,29 +8446,29 @@
       <c r="O4" s="85"/>
       <c r="P4" s="85"/>
       <c r="Q4" s="85"/>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="86" t="s">
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
       <c r="AK4" s="85" t="s">
         <v>5</v>
       </c>
@@ -8505,7 +8659,7 @@
       <c r="HN4" s="4"/>
       <c r="HO4" s="4"/>
     </row>
-    <row r="5" spans="1:223" ht="13.7" customHeight="1">
+    <row r="5" spans="1:223" ht="13.65" customHeight="1">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -8523,25 +8677,25 @@
       <c r="O5" s="85"/>
       <c r="P5" s="85"/>
       <c r="Q5" s="85"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
       <c r="AK5" s="85"/>
       <c r="AL5" s="85"/>
       <c r="AM5" s="85"/>
@@ -8731,75 +8885,75 @@
       <c r="HO5" s="4"/>
     </row>
     <row r="6" spans="1:223" ht="12">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="97" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="64" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="55" t="s">
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="58" t="s">
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="61" t="s">
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="101"/>
+      <c r="AI6" s="101"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="62"/>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="62"/>
-      <c r="BA6" s="62"/>
-      <c r="BB6" s="62"/>
-      <c r="BC6" s="62"/>
-      <c r="BD6" s="62"/>
-      <c r="BE6" s="63"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104"/>
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="105"/>
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
@@ -8968,69 +9122,69 @@
       <c r="HO6" s="4"/>
     </row>
     <row r="7" spans="1:223" ht="12">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="55" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58" t="s">
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="61" t="s">
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="62"/>
-      <c r="BE7" s="63"/>
+      <c r="AL7" s="104"/>
+      <c r="AM7" s="104"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="104"/>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="104"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="104"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="104"/>
+      <c r="AV7" s="104"/>
+      <c r="AW7" s="104"/>
+      <c r="AX7" s="104"/>
+      <c r="AY7" s="104"/>
+      <c r="AZ7" s="104"/>
+      <c r="BA7" s="104"/>
+      <c r="BB7" s="104"/>
+      <c r="BC7" s="104"/>
+      <c r="BD7" s="104"/>
+      <c r="BE7" s="105"/>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4"/>
       <c r="BT7" s="4"/>
@@ -9187,69 +9341,69 @@
       <c r="HO7" s="4"/>
     </row>
     <row r="8" spans="1:223" ht="12">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="55" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58" t="s">
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="61" t="s">
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="102"/>
+      <c r="AK8" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="63"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="105"/>
       <c r="BR8" s="4"/>
       <c r="BS8" s="4"/>
       <c r="BT8" s="4"/>
@@ -9406,71 +9560,71 @@
       <c r="HO8" s="4"/>
     </row>
     <row r="9" spans="1:223" ht="12">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="73" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="82" t="s">
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="58" t="s">
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="61" t="s">
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="63"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="104"/>
+      <c r="AV9" s="104"/>
+      <c r="AW9" s="104"/>
+      <c r="AX9" s="104"/>
+      <c r="AY9" s="104"/>
+      <c r="AZ9" s="104"/>
+      <c r="BA9" s="104"/>
+      <c r="BB9" s="104"/>
+      <c r="BC9" s="104"/>
+      <c r="BD9" s="104"/>
+      <c r="BE9" s="105"/>
       <c r="BR9" s="4"/>
       <c r="BS9" s="4"/>
       <c r="BT9" s="4"/>
@@ -9627,1075 +9781,1090 @@
       <c r="HO9" s="4"/>
     </row>
     <row r="10" spans="1:223" ht="12">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="82" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="58" t="s">
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="61" t="s">
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="62"/>
-      <c r="BB10" s="62"/>
-      <c r="BC10" s="62"/>
-      <c r="BD10" s="62"/>
-      <c r="BE10" s="63"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="104"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="104"/>
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="104"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="104"/>
+      <c r="AV10" s="104"/>
+      <c r="AW10" s="104"/>
+      <c r="AX10" s="104"/>
+      <c r="AY10" s="104"/>
+      <c r="AZ10" s="104"/>
+      <c r="BA10" s="104"/>
+      <c r="BB10" s="104"/>
+      <c r="BC10" s="104"/>
+      <c r="BD10" s="104"/>
+      <c r="BE10" s="105"/>
     </row>
     <row r="11" spans="1:223" ht="12">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="82" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="58" t="s">
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="61" t="s">
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="62"/>
-      <c r="BA11" s="62"/>
-      <c r="BB11" s="62"/>
-      <c r="BC11" s="62"/>
-      <c r="BD11" s="62"/>
-      <c r="BE11" s="63"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="104"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="104"/>
+      <c r="AP11" s="104"/>
+      <c r="AQ11" s="104"/>
+      <c r="AR11" s="104"/>
+      <c r="AS11" s="104"/>
+      <c r="AT11" s="104"/>
+      <c r="AU11" s="104"/>
+      <c r="AV11" s="104"/>
+      <c r="AW11" s="104"/>
+      <c r="AX11" s="104"/>
+      <c r="AY11" s="104"/>
+      <c r="AZ11" s="104"/>
+      <c r="BA11" s="104"/>
+      <c r="BB11" s="104"/>
+      <c r="BC11" s="104"/>
+      <c r="BD11" s="104"/>
+      <c r="BE11" s="105"/>
     </row>
     <row r="12" spans="1:223" ht="12">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="55" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58" t="s">
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="61" t="s">
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="101"/>
+      <c r="AJ12" s="102"/>
+      <c r="AK12" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="62"/>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="62"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="62"/>
-      <c r="BB12" s="62"/>
-      <c r="BC12" s="62"/>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="63"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="104"/>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="104"/>
+      <c r="AP12" s="104"/>
+      <c r="AQ12" s="104"/>
+      <c r="AR12" s="104"/>
+      <c r="AS12" s="104"/>
+      <c r="AT12" s="104"/>
+      <c r="AU12" s="104"/>
+      <c r="AV12" s="104"/>
+      <c r="AW12" s="104"/>
+      <c r="AX12" s="104"/>
+      <c r="AY12" s="104"/>
+      <c r="AZ12" s="104"/>
+      <c r="BA12" s="104"/>
+      <c r="BB12" s="104"/>
+      <c r="BC12" s="104"/>
+      <c r="BD12" s="104"/>
+      <c r="BE12" s="105"/>
     </row>
     <row r="13" spans="1:223" ht="12">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="55" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58" t="s">
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="61" t="s">
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="101"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="101"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="62"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="62"/>
-      <c r="BA13" s="62"/>
-      <c r="BB13" s="62"/>
-      <c r="BC13" s="62"/>
-      <c r="BD13" s="62"/>
-      <c r="BE13" s="63"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="104"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="104"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="104"/>
+      <c r="AR13" s="104"/>
+      <c r="AS13" s="104"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="104"/>
+      <c r="AV13" s="104"/>
+      <c r="AW13" s="104"/>
+      <c r="AX13" s="104"/>
+      <c r="AY13" s="104"/>
+      <c r="AZ13" s="104"/>
+      <c r="BA13" s="104"/>
+      <c r="BB13" s="104"/>
+      <c r="BC13" s="104"/>
+      <c r="BD13" s="104"/>
+      <c r="BE13" s="105"/>
     </row>
     <row r="14" spans="1:223" ht="12">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="55" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58" t="s">
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="60"/>
-      <c r="AK14" s="61" t="s">
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="101"/>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="101"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="63"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="104"/>
+      <c r="AT14" s="104"/>
+      <c r="AU14" s="104"/>
+      <c r="AV14" s="104"/>
+      <c r="AW14" s="104"/>
+      <c r="AX14" s="104"/>
+      <c r="AY14" s="104"/>
+      <c r="AZ14" s="104"/>
+      <c r="BA14" s="104"/>
+      <c r="BB14" s="104"/>
+      <c r="BC14" s="104"/>
+      <c r="BD14" s="104"/>
+      <c r="BE14" s="105"/>
     </row>
     <row r="15" spans="1:223" ht="12">
-      <c r="A15" s="100"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="55" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58" t="s">
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="61" t="s">
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="101"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="62"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="62"/>
-      <c r="BD15" s="62"/>
-      <c r="BE15" s="63"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="104"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="104"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="104"/>
+      <c r="AR15" s="104"/>
+      <c r="AS15" s="104"/>
+      <c r="AT15" s="104"/>
+      <c r="AU15" s="104"/>
+      <c r="AV15" s="104"/>
+      <c r="AW15" s="104"/>
+      <c r="AX15" s="104"/>
+      <c r="AY15" s="104"/>
+      <c r="AZ15" s="104"/>
+      <c r="BA15" s="104"/>
+      <c r="BB15" s="104"/>
+      <c r="BC15" s="104"/>
+      <c r="BD15" s="104"/>
+      <c r="BE15" s="105"/>
     </row>
     <row r="16" spans="1:223" ht="12">
-      <c r="A16" s="100"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="55" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58" t="s">
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="61" t="s">
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="62"/>
-      <c r="BA16" s="62"/>
-      <c r="BB16" s="62"/>
-      <c r="BC16" s="62"/>
-      <c r="BD16" s="62"/>
-      <c r="BE16" s="63"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="104"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="104"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="104"/>
+      <c r="AR16" s="104"/>
+      <c r="AS16" s="104"/>
+      <c r="AT16" s="104"/>
+      <c r="AU16" s="104"/>
+      <c r="AV16" s="104"/>
+      <c r="AW16" s="104"/>
+      <c r="AX16" s="104"/>
+      <c r="AY16" s="104"/>
+      <c r="AZ16" s="104"/>
+      <c r="BA16" s="104"/>
+      <c r="BB16" s="104"/>
+      <c r="BC16" s="104"/>
+      <c r="BD16" s="104"/>
+      <c r="BE16" s="105"/>
     </row>
     <row r="17" spans="1:57" ht="12">
-      <c r="A17" s="100"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="64" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="55" t="s">
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58" t="s">
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="61" t="s">
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="101"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="101"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="62"/>
-      <c r="BA17" s="62"/>
-      <c r="BB17" s="62"/>
-      <c r="BC17" s="62"/>
-      <c r="BD17" s="62"/>
-      <c r="BE17" s="63"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="104"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="104"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="104"/>
+      <c r="AV17" s="104"/>
+      <c r="AW17" s="104"/>
+      <c r="AX17" s="104"/>
+      <c r="AY17" s="104"/>
+      <c r="AZ17" s="104"/>
+      <c r="BA17" s="104"/>
+      <c r="BB17" s="104"/>
+      <c r="BC17" s="104"/>
+      <c r="BD17" s="104"/>
+      <c r="BE17" s="105"/>
     </row>
     <row r="18" spans="1:57" ht="12">
-      <c r="A18" s="100"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="55" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58" t="s">
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="61" t="s">
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="101"/>
+      <c r="AF18" s="101"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="101"/>
+      <c r="AJ18" s="102"/>
+      <c r="AK18" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="AL18" s="62"/>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="62"/>
-      <c r="BA18" s="62"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="63"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="104"/>
+      <c r="AV18" s="104"/>
+      <c r="AW18" s="104"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="104"/>
+      <c r="AZ18" s="104"/>
+      <c r="BA18" s="104"/>
+      <c r="BB18" s="104"/>
+      <c r="BC18" s="104"/>
+      <c r="BD18" s="104"/>
+      <c r="BE18" s="105"/>
     </row>
     <row r="19" spans="1:57" ht="12">
-      <c r="A19" s="100"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="55" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58" t="s">
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="61" t="s">
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="101"/>
+      <c r="AF19" s="101"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="101"/>
+      <c r="AJ19" s="102"/>
+      <c r="AK19" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="63"/>
+      <c r="AL19" s="104"/>
+      <c r="AM19" s="104"/>
+      <c r="AN19" s="104"/>
+      <c r="AO19" s="104"/>
+      <c r="AP19" s="104"/>
+      <c r="AQ19" s="104"/>
+      <c r="AR19" s="104"/>
+      <c r="AS19" s="104"/>
+      <c r="AT19" s="104"/>
+      <c r="AU19" s="104"/>
+      <c r="AV19" s="104"/>
+      <c r="AW19" s="104"/>
+      <c r="AX19" s="104"/>
+      <c r="AY19" s="104"/>
+      <c r="AZ19" s="104"/>
+      <c r="BA19" s="104"/>
+      <c r="BB19" s="104"/>
+      <c r="BC19" s="104"/>
+      <c r="BD19" s="104"/>
+      <c r="BE19" s="105"/>
     </row>
     <row r="20" spans="1:57" ht="12">
-      <c r="A20" s="100"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="64" t="s">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="55" t="s">
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58" t="s">
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="61" t="s">
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="101"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="101"/>
+      <c r="AJ20" s="102"/>
+      <c r="AK20" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="62"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="62"/>
-      <c r="BD20" s="62"/>
-      <c r="BE20" s="63"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="104"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="104"/>
+      <c r="AR20" s="104"/>
+      <c r="AS20" s="104"/>
+      <c r="AT20" s="104"/>
+      <c r="AU20" s="104"/>
+      <c r="AV20" s="104"/>
+      <c r="AW20" s="104"/>
+      <c r="AX20" s="104"/>
+      <c r="AY20" s="104"/>
+      <c r="AZ20" s="104"/>
+      <c r="BA20" s="104"/>
+      <c r="BB20" s="104"/>
+      <c r="BC20" s="104"/>
+      <c r="BD20" s="104"/>
+      <c r="BE20" s="105"/>
     </row>
     <row r="21" spans="1:57" ht="12">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="55" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58" t="s">
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="61" t="s">
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="101"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="101"/>
+      <c r="AJ21" s="102"/>
+      <c r="AK21" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="62"/>
-      <c r="AY21" s="62"/>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="62"/>
-      <c r="BB21" s="62"/>
-      <c r="BC21" s="62"/>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="63"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="104"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="104"/>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="104"/>
+      <c r="AR21" s="104"/>
+      <c r="AS21" s="104"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="104"/>
+      <c r="AV21" s="104"/>
+      <c r="AW21" s="104"/>
+      <c r="AX21" s="104"/>
+      <c r="AY21" s="104"/>
+      <c r="AZ21" s="104"/>
+      <c r="BA21" s="104"/>
+      <c r="BB21" s="104"/>
+      <c r="BC21" s="104"/>
+      <c r="BD21" s="104"/>
+      <c r="BE21" s="105"/>
     </row>
     <row r="22" spans="1:57" ht="12">
-      <c r="A22" s="100"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="55" t="s">
+      <c r="A22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58" t="s">
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="61" t="s">
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="101"/>
+      <c r="AE22" s="101"/>
+      <c r="AF22" s="101"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="101"/>
+      <c r="AI22" s="101"/>
+      <c r="AJ22" s="102"/>
+      <c r="AK22" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="62"/>
-      <c r="AX22" s="62"/>
-      <c r="AY22" s="62"/>
-      <c r="AZ22" s="62"/>
-      <c r="BA22" s="62"/>
-      <c r="BB22" s="62"/>
-      <c r="BC22" s="62"/>
-      <c r="BD22" s="62"/>
-      <c r="BE22" s="63"/>
+      <c r="AL22" s="104"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="104"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="104"/>
+      <c r="AV22" s="104"/>
+      <c r="AW22" s="104"/>
+      <c r="AX22" s="104"/>
+      <c r="AY22" s="104"/>
+      <c r="AZ22" s="104"/>
+      <c r="BA22" s="104"/>
+      <c r="BB22" s="104"/>
+      <c r="BC22" s="104"/>
+      <c r="BD22" s="104"/>
+      <c r="BE22" s="105"/>
     </row>
     <row r="23" spans="1:57" ht="12">
-      <c r="A23" s="100"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="55" t="s">
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58" t="s">
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="61" t="s">
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="101"/>
+      <c r="AF23" s="101"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="101"/>
+      <c r="AJ23" s="102"/>
+      <c r="AK23" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="62"/>
-      <c r="AY23" s="62"/>
-      <c r="AZ23" s="62"/>
-      <c r="BA23" s="62"/>
-      <c r="BB23" s="62"/>
-      <c r="BC23" s="62"/>
-      <c r="BD23" s="62"/>
-      <c r="BE23" s="63"/>
+      <c r="AL23" s="104"/>
+      <c r="AM23" s="104"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="104"/>
+      <c r="AP23" s="104"/>
+      <c r="AQ23" s="104"/>
+      <c r="AR23" s="104"/>
+      <c r="AS23" s="104"/>
+      <c r="AT23" s="104"/>
+      <c r="AU23" s="104"/>
+      <c r="AV23" s="104"/>
+      <c r="AW23" s="104"/>
+      <c r="AX23" s="104"/>
+      <c r="AY23" s="104"/>
+      <c r="AZ23" s="104"/>
+      <c r="BA23" s="104"/>
+      <c r="BB23" s="104"/>
+      <c r="BC23" s="104"/>
+      <c r="BD23" s="104"/>
+      <c r="BE23" s="105"/>
     </row>
     <row r="24" spans="1:57" ht="12">
-      <c r="A24" s="100"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="55" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58" t="s">
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="61" t="s">
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="101"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="101"/>
+      <c r="AI24" s="101"/>
+      <c r="AJ24" s="102"/>
+      <c r="AK24" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="AL24" s="62"/>
-      <c r="AM24" s="62"/>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="62"/>
-      <c r="AQ24" s="62"/>
-      <c r="AR24" s="62"/>
-      <c r="AS24" s="62"/>
-      <c r="AT24" s="62"/>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="62"/>
-      <c r="AW24" s="62"/>
-      <c r="AX24" s="62"/>
-      <c r="AY24" s="62"/>
-      <c r="AZ24" s="62"/>
-      <c r="BA24" s="62"/>
-      <c r="BB24" s="62"/>
-      <c r="BC24" s="62"/>
-      <c r="BD24" s="62"/>
-      <c r="BE24" s="63"/>
+      <c r="AL24" s="104"/>
+      <c r="AM24" s="104"/>
+      <c r="AN24" s="104"/>
+      <c r="AO24" s="104"/>
+      <c r="AP24" s="104"/>
+      <c r="AQ24" s="104"/>
+      <c r="AR24" s="104"/>
+      <c r="AS24" s="104"/>
+      <c r="AT24" s="104"/>
+      <c r="AU24" s="104"/>
+      <c r="AV24" s="104"/>
+      <c r="AW24" s="104"/>
+      <c r="AX24" s="104"/>
+      <c r="AY24" s="104"/>
+      <c r="AZ24" s="104"/>
+      <c r="BA24" s="104"/>
+      <c r="BB24" s="104"/>
+      <c r="BC24" s="104"/>
+      <c r="BD24" s="104"/>
+      <c r="BE24" s="105"/>
     </row>
     <row r="25" spans="1:57" ht="12">
-      <c r="A25" s="103"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="55" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58" t="s">
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="61" t="s">
+      <c r="AB25" s="101"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="101"/>
+      <c r="AF25" s="101"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="101"/>
+      <c r="AI25" s="101"/>
+      <c r="AJ25" s="102"/>
+      <c r="AK25" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="62"/>
-      <c r="AY25" s="62"/>
-      <c r="AZ25" s="62"/>
-      <c r="BA25" s="62"/>
-      <c r="BB25" s="62"/>
-      <c r="BC25" s="62"/>
-      <c r="BD25" s="62"/>
-      <c r="BE25" s="63"/>
+      <c r="AL25" s="104"/>
+      <c r="AM25" s="104"/>
+      <c r="AN25" s="104"/>
+      <c r="AO25" s="104"/>
+      <c r="AP25" s="104"/>
+      <c r="AQ25" s="104"/>
+      <c r="AR25" s="104"/>
+      <c r="AS25" s="104"/>
+      <c r="AT25" s="104"/>
+      <c r="AU25" s="104"/>
+      <c r="AV25" s="104"/>
+      <c r="AW25" s="104"/>
+      <c r="AX25" s="104"/>
+      <c r="AY25" s="104"/>
+      <c r="AZ25" s="104"/>
+      <c r="BA25" s="104"/>
+      <c r="BB25" s="104"/>
+      <c r="BC25" s="104"/>
+      <c r="BD25" s="104"/>
+      <c r="BE25" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="K17:Q19"/>
-    <mergeCell ref="D6:J25"/>
-    <mergeCell ref="A6:C25"/>
-    <mergeCell ref="K20:Q25"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AK4:BE5"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="AZ1:BE1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="R4:Z5"/>
-    <mergeCell ref="AA4:AJ5"/>
-    <mergeCell ref="R18:Z18"/>
+    <mergeCell ref="AA17:AJ17"/>
+    <mergeCell ref="AA6:AJ6"/>
+    <mergeCell ref="AK6:BE6"/>
+    <mergeCell ref="R12:Z12"/>
+    <mergeCell ref="AK16:BE16"/>
+    <mergeCell ref="R7:Z7"/>
+    <mergeCell ref="AA7:AJ7"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="AK14:BE14"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AA15:AJ15"/>
+    <mergeCell ref="AK15:BE15"/>
+    <mergeCell ref="AK7:BE7"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AK12:BE12"/>
+    <mergeCell ref="AA25:AJ25"/>
+    <mergeCell ref="AK25:BE25"/>
+    <mergeCell ref="AA9:AJ9"/>
+    <mergeCell ref="AK9:BE9"/>
+    <mergeCell ref="R21:Z21"/>
+    <mergeCell ref="AA21:AJ21"/>
+    <mergeCell ref="AK21:BE21"/>
+    <mergeCell ref="R19:Z19"/>
+    <mergeCell ref="AA19:AJ19"/>
+    <mergeCell ref="AK19:BE19"/>
+    <mergeCell ref="R20:Z20"/>
+    <mergeCell ref="AA20:AJ20"/>
+    <mergeCell ref="AK20:BE20"/>
+    <mergeCell ref="AK17:BE17"/>
+    <mergeCell ref="AA16:AJ16"/>
+    <mergeCell ref="R14:Z14"/>
+    <mergeCell ref="AA24:AJ24"/>
+    <mergeCell ref="AK24:BE24"/>
+    <mergeCell ref="R22:Z22"/>
+    <mergeCell ref="AA22:AJ22"/>
+    <mergeCell ref="AK22:BE22"/>
+    <mergeCell ref="R23:Z23"/>
+    <mergeCell ref="AA23:AJ23"/>
+    <mergeCell ref="AK23:BE23"/>
     <mergeCell ref="AA18:AJ18"/>
     <mergeCell ref="AK18:BE18"/>
     <mergeCell ref="R8:Z8"/>
@@ -10711,57 +10880,43 @@
     <mergeCell ref="AA11:AJ11"/>
     <mergeCell ref="AK11:BE11"/>
     <mergeCell ref="R9:Z9"/>
+    <mergeCell ref="AA14:AJ14"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AK4:BE5"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="AZ1:BE1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="R4:Z5"/>
+    <mergeCell ref="AA4:AJ5"/>
+    <mergeCell ref="K17:Q19"/>
+    <mergeCell ref="D6:J25"/>
+    <mergeCell ref="A6:C25"/>
+    <mergeCell ref="K20:Q25"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="R18:Z18"/>
     <mergeCell ref="R24:Z24"/>
-    <mergeCell ref="AA24:AJ24"/>
-    <mergeCell ref="AK24:BE24"/>
-    <mergeCell ref="R22:Z22"/>
-    <mergeCell ref="AA22:AJ22"/>
-    <mergeCell ref="AK22:BE22"/>
-    <mergeCell ref="R23:Z23"/>
-    <mergeCell ref="AA23:AJ23"/>
-    <mergeCell ref="AK23:BE23"/>
     <mergeCell ref="R25:Z25"/>
-    <mergeCell ref="AA25:AJ25"/>
-    <mergeCell ref="AK25:BE25"/>
-    <mergeCell ref="AA9:AJ9"/>
-    <mergeCell ref="AK9:BE9"/>
-    <mergeCell ref="R21:Z21"/>
-    <mergeCell ref="AA21:AJ21"/>
-    <mergeCell ref="AK21:BE21"/>
-    <mergeCell ref="R19:Z19"/>
-    <mergeCell ref="AA19:AJ19"/>
-    <mergeCell ref="AK19:BE19"/>
-    <mergeCell ref="R20:Z20"/>
-    <mergeCell ref="AA20:AJ20"/>
-    <mergeCell ref="AK20:BE20"/>
-    <mergeCell ref="AK17:BE17"/>
-    <mergeCell ref="AA16:AJ16"/>
     <mergeCell ref="K6:Q8"/>
     <mergeCell ref="K9:Q16"/>
-    <mergeCell ref="R14:Z14"/>
-    <mergeCell ref="AA14:AJ14"/>
-    <mergeCell ref="AK14:BE14"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AA15:AJ15"/>
-    <mergeCell ref="AK15:BE15"/>
-    <mergeCell ref="AK7:BE7"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="AK12:BE12"/>
     <mergeCell ref="R17:Z17"/>
     <mergeCell ref="R16:Z16"/>
-    <mergeCell ref="AA6:AJ6"/>
-    <mergeCell ref="AK6:BE6"/>
-    <mergeCell ref="R12:Z12"/>
-    <mergeCell ref="AK16:BE16"/>
-    <mergeCell ref="R7:Z7"/>
-    <mergeCell ref="AA7:AJ7"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="AA17:AJ17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59015748031496063" right="0.59015748031496063" top="0.8271653543307087" bottom="1.2208661417322835" header="0.78740157480314954" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="57" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/02_外部設計/03_画面一覧.xlsx
+++ b/02_外部設計/03_画面一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06893EC0-2375-4653-8375-5C71D5EEE203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B30BFF7-4A92-4C20-91E2-AA80B9D864F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,78 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2B3EB1FE-AA04-415F-8FDB-197767C607D0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-お客様に相談する。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{49AD6396-FDBE-462F-8D1D-18EB4FCBD727}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-お客様に相談する。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="142">
   <si>
@@ -1548,9 +1476,9 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1658,21 +1586,6 @@
     <font>
       <sz val="9"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2070,6 +1983,141 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2106,24 +2154,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2133,228 +2163,123 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2381,18 +2306,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2682,7 +2595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IA27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2695,75 +2608,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:235" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="51" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="51" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="121">
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="32">
         <v>45537</v>
       </c>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="121"/>
-      <c r="AO1" s="121"/>
-      <c r="AP1" s="121"/>
-      <c r="AQ1" s="121"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="121"/>
-      <c r="AT1" s="121"/>
-      <c r="AU1" s="54" t="s">
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="58">
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="37">
         <v>1</v>
       </c>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
@@ -2944,71 +2857,71 @@
       <c r="IA1" s="1"/>
     </row>
     <row r="2" spans="1:235" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="64" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="65" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="64" t="s">
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="66" t="s">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="118"/>
-      <c r="BA2" s="119"/>
-      <c r="BB2" s="119"/>
-      <c r="BC2" s="119"/>
-      <c r="BD2" s="119"/>
-      <c r="BE2" s="120"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="25"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
@@ -3426,89 +3339,89 @@
       <c r="IA3" s="1"/>
     </row>
     <row r="4" spans="1:235" ht="13.65" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="47" t="s">
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="46" t="s">
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46" t="s">
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="11"/>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
+      <c r="BP4" s="11"/>
+      <c r="BQ4" s="11"/>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
@@ -3677,75 +3590,75 @@
       <c r="IA4" s="1"/>
     </row>
     <row r="5" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="11"/>
+      <c r="BO5" s="11"/>
+      <c r="BP5" s="11"/>
+      <c r="BQ5" s="11"/>
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
       <c r="BT5" s="1"/>
@@ -3914,87 +3827,87 @@
       <c r="IA5" s="1"/>
     </row>
     <row r="6" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36" t="s">
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36" t="s">
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="37" t="s">
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="37"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="37"/>
-      <c r="BE6" s="37"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="34"/>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="34"/>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="34"/>
-      <c r="BN6" s="34"/>
-      <c r="BO6" s="34"/>
-      <c r="BP6" s="34"/>
-      <c r="BQ6" s="34"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
       <c r="CD6" s="1"/>
       <c r="CE6" s="1"/>
       <c r="CF6" s="1"/>
@@ -4151,81 +4064,81 @@
       <c r="IA6" s="1"/>
     </row>
     <row r="7" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="25" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="25" t="s">
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="31" t="s">
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="34"/>
-      <c r="BL7" s="34"/>
-      <c r="BM7" s="34"/>
-      <c r="BN7" s="34"/>
-      <c r="BO7" s="34"/>
-      <c r="BP7" s="34"/>
-      <c r="BQ7" s="34"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="51"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="51"/>
+      <c r="BA7" s="51"/>
+      <c r="BB7" s="51"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
       <c r="CD7" s="1"/>
       <c r="CE7" s="1"/>
       <c r="CF7" s="1"/>
@@ -4382,83 +4295,83 @@
       <c r="IA7" s="1"/>
     </row>
     <row r="8" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="36" t="s">
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36" t="s">
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="37" t="s">
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="34"/>
-      <c r="BH8" s="34"/>
-      <c r="BI8" s="34"/>
-      <c r="BJ8" s="34"/>
-      <c r="BK8" s="34"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="34"/>
-      <c r="BN8" s="34"/>
-      <c r="BO8" s="34"/>
-      <c r="BP8" s="34"/>
-      <c r="BQ8" s="34"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
       <c r="CD8" s="1"/>
       <c r="CE8" s="1"/>
       <c r="CF8" s="1"/>
@@ -4615,81 +4528,81 @@
       <c r="IA8" s="1"/>
     </row>
     <row r="9" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36" t="s">
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="37" t="s">
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37"/>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37"/>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34"/>
-      <c r="BK9" s="34"/>
-      <c r="BL9" s="34"/>
-      <c r="BM9" s="34"/>
-      <c r="BN9" s="34"/>
-      <c r="BO9" s="34"/>
-      <c r="BP9" s="34"/>
-      <c r="BQ9" s="34"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
       <c r="CD9" s="1"/>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
@@ -4846,81 +4759,81 @@
       <c r="IA9" s="1"/>
     </row>
     <row r="10" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36" t="s">
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="37" t="s">
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="37"/>
-      <c r="BE10" s="37"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BI10" s="34"/>
-      <c r="BJ10" s="34"/>
-      <c r="BK10" s="34"/>
-      <c r="BL10" s="34"/>
-      <c r="BM10" s="34"/>
-      <c r="BN10" s="34"/>
-      <c r="BO10" s="34"/>
-      <c r="BP10" s="34"/>
-      <c r="BQ10" s="34"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+      <c r="BH10" s="12"/>
+      <c r="BI10" s="12"/>
+      <c r="BJ10" s="12"/>
+      <c r="BK10" s="12"/>
+      <c r="BL10" s="12"/>
+      <c r="BM10" s="12"/>
+      <c r="BN10" s="12"/>
+      <c r="BO10" s="12"/>
+      <c r="BP10" s="12"/>
+      <c r="BQ10" s="12"/>
       <c r="CD10" s="1"/>
       <c r="CE10" s="1"/>
       <c r="CF10" s="1"/>
@@ -5077,81 +4990,81 @@
       <c r="IA10" s="1"/>
     </row>
     <row r="11" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36" t="s">
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="37" t="s">
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="37"/>
-      <c r="AW11" s="37"/>
-      <c r="AX11" s="37"/>
-      <c r="AY11" s="37"/>
-      <c r="AZ11" s="37"/>
-      <c r="BA11" s="37"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="37"/>
-      <c r="BD11" s="37"/>
-      <c r="BE11" s="37"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="34"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="34"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="34"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="12"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="12"/>
+      <c r="BN11" s="12"/>
+      <c r="BO11" s="12"/>
+      <c r="BP11" s="12"/>
+      <c r="BQ11" s="12"/>
       <c r="CD11" s="1"/>
       <c r="CE11" s="1"/>
       <c r="CF11" s="1"/>
@@ -5308,81 +5221,81 @@
       <c r="IA11" s="1"/>
     </row>
     <row r="12" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="38" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36" t="s">
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="37" t="s">
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="37"/>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="37"/>
-      <c r="AV12" s="37"/>
-      <c r="AW12" s="37"/>
-      <c r="AX12" s="37"/>
-      <c r="AY12" s="37"/>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="37"/>
-      <c r="BB12" s="37"/>
-      <c r="BC12" s="37"/>
-      <c r="BD12" s="37"/>
-      <c r="BE12" s="37"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="34"/>
-      <c r="BN12" s="34"/>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="34"/>
-      <c r="BQ12" s="34"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+      <c r="BH12" s="12"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="12"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="12"/>
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="12"/>
+      <c r="BP12" s="12"/>
+      <c r="BQ12" s="12"/>
       <c r="CD12" s="1"/>
       <c r="CE12" s="1"/>
       <c r="CF12" s="1"/>
@@ -5539,83 +5452,83 @@
       <c r="IA12" s="1"/>
     </row>
     <row r="13" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="10" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="25" t="s">
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="25" t="s">
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="28" t="s">
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="30"/>
-      <c r="BF13" s="19"/>
-      <c r="BG13" s="20"/>
-      <c r="BH13" s="20"/>
-      <c r="BI13" s="20"/>
-      <c r="BJ13" s="20"/>
-      <c r="BK13" s="20"/>
-      <c r="BL13" s="20"/>
-      <c r="BM13" s="20"/>
-      <c r="BN13" s="20"/>
-      <c r="BO13" s="20"/>
-      <c r="BP13" s="20"/>
-      <c r="BQ13" s="21"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="69"/>
+      <c r="BF13" s="64"/>
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="65"/>
+      <c r="BI13" s="65"/>
+      <c r="BJ13" s="65"/>
+      <c r="BK13" s="65"/>
+      <c r="BL13" s="65"/>
+      <c r="BM13" s="65"/>
+      <c r="BN13" s="65"/>
+      <c r="BO13" s="65"/>
+      <c r="BP13" s="65"/>
+      <c r="BQ13" s="66"/>
       <c r="CD13" s="1"/>
       <c r="CE13" s="1"/>
       <c r="CF13" s="1"/>
@@ -5772,81 +5685,81 @@
       <c r="IA13" s="1"/>
     </row>
     <row r="14" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="22" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22" t="s">
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="23" t="s">
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="23"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="23"/>
-      <c r="BC14" s="23"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="24"/>
-      <c r="BG14" s="24"/>
-      <c r="BH14" s="24"/>
-      <c r="BI14" s="24"/>
-      <c r="BJ14" s="24"/>
-      <c r="BK14" s="24"/>
-      <c r="BL14" s="24"/>
-      <c r="BM14" s="24"/>
-      <c r="BN14" s="24"/>
-      <c r="BO14" s="24"/>
-      <c r="BP14" s="24"/>
-      <c r="BQ14" s="24"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
       <c r="CD14" s="1"/>
       <c r="CE14" s="1"/>
       <c r="CF14" s="1"/>
@@ -6003,81 +5916,81 @@
       <c r="IA14" s="1"/>
     </row>
     <row r="15" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="22" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22" t="s">
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="23" t="s">
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="23"/>
-      <c r="AQ15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="23"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23"/>
-      <c r="BA15" s="23"/>
-      <c r="BB15" s="23"/>
-      <c r="BC15" s="23"/>
-      <c r="BD15" s="23"/>
-      <c r="BE15" s="23"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="24"/>
-      <c r="BJ15" s="24"/>
-      <c r="BK15" s="24"/>
-      <c r="BL15" s="24"/>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="24"/>
-      <c r="BO15" s="24"/>
-      <c r="BP15" s="24"/>
-      <c r="BQ15" s="24"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="15"/>
+      <c r="BO15" s="15"/>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
       <c r="CD15" s="1"/>
       <c r="CE15" s="1"/>
       <c r="CF15" s="1"/>
@@ -6234,81 +6147,81 @@
       <c r="IA15" s="1"/>
     </row>
     <row r="16" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="22" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22" t="s">
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="23" t="s">
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="23"/>
-      <c r="BD16" s="23"/>
-      <c r="BE16" s="23"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="34"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="34"/>
-      <c r="BN16" s="34"/>
-      <c r="BO16" s="34"/>
-      <c r="BP16" s="34"/>
-      <c r="BQ16" s="34"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
       <c r="CD16" s="1"/>
       <c r="CE16" s="1"/>
       <c r="CF16" s="1"/>
@@ -6465,81 +6378,81 @@
       <c r="IA16" s="1"/>
     </row>
     <row r="17" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="36" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36" t="s">
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="37" t="s">
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="37"/>
-      <c r="AW17" s="37"/>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="37"/>
-      <c r="AZ17" s="37"/>
-      <c r="BA17" s="37"/>
-      <c r="BB17" s="37"/>
-      <c r="BC17" s="37"/>
-      <c r="BD17" s="37"/>
-      <c r="BE17" s="37"/>
-      <c r="BF17" s="34"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="34"/>
-      <c r="BI17" s="34"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="34"/>
-      <c r="BL17" s="34"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="34"/>
-      <c r="BO17" s="34"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="34"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="13"/>
+      <c r="BE17" s="13"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
       <c r="CD17" s="1"/>
       <c r="CE17" s="1"/>
       <c r="CF17" s="1"/>
@@ -6696,81 +6609,81 @@
       <c r="IA17" s="1"/>
     </row>
     <row r="18" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="36" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36" t="s">
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="37" t="s">
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="37"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="37"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="37"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="34"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="34"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13"/>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
       <c r="CD18" s="1"/>
       <c r="CE18" s="1"/>
       <c r="CF18" s="1"/>
@@ -6927,81 +6840,81 @@
       <c r="IA18" s="1"/>
     </row>
     <row r="19" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="36" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36" t="s">
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="37" t="s">
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="37"/>
-      <c r="AS19" s="37"/>
-      <c r="AT19" s="37"/>
-      <c r="AU19" s="37"/>
-      <c r="AV19" s="37"/>
-      <c r="AW19" s="37"/>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="37"/>
-      <c r="BB19" s="37"/>
-      <c r="BC19" s="37"/>
-      <c r="BD19" s="37"/>
-      <c r="BE19" s="37"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="34"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="13"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
       <c r="CD19" s="1"/>
       <c r="CE19" s="1"/>
       <c r="CF19" s="1"/>
@@ -7158,389 +7071,389 @@
       <c r="IA19" s="1"/>
     </row>
     <row r="20" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="36" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36" t="s">
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="37" t="s">
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="37"/>
-      <c r="AT20" s="37"/>
-      <c r="AU20" s="37"/>
-      <c r="AV20" s="37"/>
-      <c r="AW20" s="37"/>
-      <c r="AX20" s="37"/>
-      <c r="AY20" s="37"/>
-      <c r="AZ20" s="37"/>
-      <c r="BA20" s="37"/>
-      <c r="BB20" s="37"/>
-      <c r="BC20" s="37"/>
-      <c r="BD20" s="37"/>
-      <c r="BE20" s="37"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="34"/>
-      <c r="BL20" s="34"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="34"/>
-      <c r="BO20" s="34"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="34"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="13"/>
+      <c r="BE20" s="13"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="12"/>
     </row>
     <row r="21" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="36" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36" t="s">
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="37" t="s">
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
-      <c r="AT21" s="37"/>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="37"/>
-      <c r="BA21" s="37"/>
-      <c r="BB21" s="37"/>
-      <c r="BC21" s="37"/>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="37"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="34"/>
-      <c r="BP21" s="34"/>
-      <c r="BQ21" s="34"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
+      <c r="BQ21" s="12"/>
     </row>
     <row r="22" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="36" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36" t="s">
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="37" t="s">
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="37"/>
-      <c r="AU22" s="37"/>
-      <c r="AV22" s="37"/>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="37"/>
-      <c r="AY22" s="37"/>
-      <c r="AZ22" s="37"/>
-      <c r="BA22" s="37"/>
-      <c r="BB22" s="37"/>
-      <c r="BC22" s="37"/>
-      <c r="BD22" s="37"/>
-      <c r="BE22" s="37"/>
-      <c r="BF22" s="34"/>
-      <c r="BG22" s="34"/>
-      <c r="BH22" s="34"/>
-      <c r="BI22" s="34"/>
-      <c r="BJ22" s="34"/>
-      <c r="BK22" s="34"/>
-      <c r="BL22" s="34"/>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="34"/>
-      <c r="BO22" s="34"/>
-      <c r="BP22" s="34"/>
-      <c r="BQ22" s="34"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+      <c r="BO22" s="12"/>
+      <c r="BP22" s="12"/>
+      <c r="BQ22" s="12"/>
     </row>
     <row r="23" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="36" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36" t="s">
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="37" t="s">
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37"/>
-      <c r="BB23" s="37"/>
-      <c r="BC23" s="37"/>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="37"/>
-      <c r="BF23" s="34"/>
-      <c r="BG23" s="34"/>
-      <c r="BH23" s="34"/>
-      <c r="BI23" s="34"/>
-      <c r="BJ23" s="34"/>
-      <c r="BK23" s="34"/>
-      <c r="BL23" s="34"/>
-      <c r="BM23" s="34"/>
-      <c r="BN23" s="34"/>
-      <c r="BO23" s="34"/>
-      <c r="BP23" s="34"/>
-      <c r="BQ23" s="34"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12"/>
+      <c r="BP23" s="12"/>
+      <c r="BQ23" s="12"/>
     </row>
     <row r="24" spans="1:235" ht="14.25" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="36" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36" t="s">
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="37" t="s">
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="37"/>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="37"/>
-      <c r="AT24" s="37"/>
-      <c r="AU24" s="37"/>
-      <c r="AV24" s="37"/>
-      <c r="AW24" s="37"/>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="37"/>
-      <c r="AZ24" s="37"/>
-      <c r="BA24" s="37"/>
-      <c r="BB24" s="37"/>
-      <c r="BC24" s="37"/>
-      <c r="BD24" s="37"/>
-      <c r="BE24" s="37"/>
-      <c r="BF24" s="34"/>
-      <c r="BG24" s="34"/>
-      <c r="BH24" s="34"/>
-      <c r="BI24" s="34"/>
-      <c r="BJ24" s="34"/>
-      <c r="BK24" s="34"/>
-      <c r="BL24" s="34"/>
-      <c r="BM24" s="34"/>
-      <c r="BN24" s="34"/>
-      <c r="BO24" s="34"/>
-      <c r="BP24" s="34"/>
-      <c r="BQ24" s="34"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
+      <c r="BH24" s="12"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="12"/>
+      <c r="BP24" s="12"/>
+      <c r="BQ24" s="12"/>
     </row>
     <row r="25" spans="1:235">
       <c r="A25" s="7"/>
@@ -7603,83 +7516,6 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="R8:Z8"/>
-    <mergeCell ref="AA8:AJ8"/>
-    <mergeCell ref="R18:Z18"/>
-    <mergeCell ref="AA18:AJ18"/>
-    <mergeCell ref="R17:Z17"/>
-    <mergeCell ref="BF4:BQ5"/>
-    <mergeCell ref="BF16:BQ16"/>
-    <mergeCell ref="BF17:BQ17"/>
-    <mergeCell ref="AK19:BE19"/>
-    <mergeCell ref="AK20:BE20"/>
-    <mergeCell ref="AK21:BE21"/>
-    <mergeCell ref="AK22:BE22"/>
-    <mergeCell ref="AK23:BE23"/>
-    <mergeCell ref="AK24:BE24"/>
-    <mergeCell ref="AK17:BE17"/>
-    <mergeCell ref="AK16:BE16"/>
-    <mergeCell ref="BF15:BQ15"/>
-    <mergeCell ref="AK8:BE8"/>
-    <mergeCell ref="AK12:BE12"/>
-    <mergeCell ref="AK18:BE18"/>
-    <mergeCell ref="BF6:BQ6"/>
-    <mergeCell ref="BF11:BQ11"/>
-    <mergeCell ref="BF12:BQ12"/>
-    <mergeCell ref="BF24:BQ24"/>
-    <mergeCell ref="BF23:BQ23"/>
-    <mergeCell ref="BF18:BQ18"/>
-    <mergeCell ref="BF19:BQ19"/>
-    <mergeCell ref="BF20:BQ20"/>
-    <mergeCell ref="BF21:BQ21"/>
-    <mergeCell ref="AK6:BE6"/>
-    <mergeCell ref="AZ1:BE1"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="R4:Z5"/>
-    <mergeCell ref="AA4:AJ5"/>
-    <mergeCell ref="AK4:BE5"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="D6:J24"/>
-    <mergeCell ref="A6:C24"/>
-    <mergeCell ref="R19:Z19"/>
-    <mergeCell ref="R20:Z20"/>
-    <mergeCell ref="R7:Z7"/>
-    <mergeCell ref="AA7:AJ7"/>
-    <mergeCell ref="AK7:BE7"/>
-    <mergeCell ref="R16:Z16"/>
-    <mergeCell ref="AA16:AJ16"/>
-    <mergeCell ref="BF7:BQ7"/>
-    <mergeCell ref="K6:Q7"/>
-    <mergeCell ref="R9:Z9"/>
-    <mergeCell ref="AA9:AJ9"/>
-    <mergeCell ref="AK9:BE9"/>
-    <mergeCell ref="BF8:BQ8"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="AA10:AJ10"/>
-    <mergeCell ref="AK10:BE10"/>
-    <mergeCell ref="BF9:BQ9"/>
-    <mergeCell ref="R11:Z11"/>
-    <mergeCell ref="AA11:AJ11"/>
-    <mergeCell ref="AK11:BE11"/>
-    <mergeCell ref="BF10:BQ10"/>
-    <mergeCell ref="K8:Q12"/>
-    <mergeCell ref="R12:Z12"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="AA6:AJ6"/>
     <mergeCell ref="K13:Q24"/>
     <mergeCell ref="BF13:BQ13"/>
     <mergeCell ref="R14:Z14"/>
@@ -7704,22 +7540,98 @@
     <mergeCell ref="R23:Z23"/>
     <mergeCell ref="R24:Z24"/>
     <mergeCell ref="AA22:AJ22"/>
+    <mergeCell ref="D6:J24"/>
+    <mergeCell ref="A6:C24"/>
+    <mergeCell ref="R19:Z19"/>
+    <mergeCell ref="R20:Z20"/>
+    <mergeCell ref="R7:Z7"/>
+    <mergeCell ref="AA7:AJ7"/>
+    <mergeCell ref="AK7:BE7"/>
+    <mergeCell ref="R16:Z16"/>
+    <mergeCell ref="AA16:AJ16"/>
+    <mergeCell ref="K6:Q7"/>
+    <mergeCell ref="R9:Z9"/>
+    <mergeCell ref="AA9:AJ9"/>
+    <mergeCell ref="AK9:BE9"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="AA10:AJ10"/>
+    <mergeCell ref="AK10:BE10"/>
+    <mergeCell ref="R11:Z11"/>
+    <mergeCell ref="AA11:AJ11"/>
+    <mergeCell ref="AK11:BE11"/>
+    <mergeCell ref="K8:Q12"/>
+    <mergeCell ref="R12:Z12"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="AA6:AJ6"/>
+    <mergeCell ref="AZ1:BE1"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="R4:Z5"/>
+    <mergeCell ref="AA4:AJ5"/>
+    <mergeCell ref="AK4:BE5"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AK20:BE20"/>
+    <mergeCell ref="AK21:BE21"/>
+    <mergeCell ref="AK22:BE22"/>
+    <mergeCell ref="AK23:BE23"/>
+    <mergeCell ref="AK24:BE24"/>
+    <mergeCell ref="AK17:BE17"/>
+    <mergeCell ref="AK16:BE16"/>
+    <mergeCell ref="BF15:BQ15"/>
+    <mergeCell ref="AK8:BE8"/>
+    <mergeCell ref="AK12:BE12"/>
+    <mergeCell ref="AK18:BE18"/>
+    <mergeCell ref="BF11:BQ11"/>
+    <mergeCell ref="BF12:BQ12"/>
+    <mergeCell ref="BF24:BQ24"/>
+    <mergeCell ref="BF23:BQ23"/>
+    <mergeCell ref="BF18:BQ18"/>
+    <mergeCell ref="BF19:BQ19"/>
+    <mergeCell ref="BF20:BQ20"/>
+    <mergeCell ref="BF21:BQ21"/>
+    <mergeCell ref="BF8:BQ8"/>
+    <mergeCell ref="BF9:BQ9"/>
+    <mergeCell ref="BF10:BQ10"/>
+    <mergeCell ref="R8:Z8"/>
+    <mergeCell ref="AA8:AJ8"/>
+    <mergeCell ref="R18:Z18"/>
+    <mergeCell ref="AA18:AJ18"/>
+    <mergeCell ref="R17:Z17"/>
+    <mergeCell ref="BF4:BQ5"/>
+    <mergeCell ref="BF16:BQ16"/>
+    <mergeCell ref="BF17:BQ17"/>
+    <mergeCell ref="AK19:BE19"/>
+    <mergeCell ref="BF6:BQ6"/>
+    <mergeCell ref="AK6:BE6"/>
+    <mergeCell ref="BF7:BQ7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59015748031496063" right="0.59015748031496063" top="0.8271653543307087" bottom="1.2208661417322835" header="0.78740157480314954" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="57" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:HO25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+      <selection activeCell="AL1" sqref="AL1:AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="10.8"/>
@@ -7728,75 +7640,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:223" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="51" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="51" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="53">
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="82">
         <v>45537</v>
       </c>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="54" t="s">
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="86">
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="84">
         <v>2</v>
       </c>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="88"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="92"/>
-      <c r="BB1" s="92"/>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="92"/>
-      <c r="BE1" s="92"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="90"/>
+      <c r="BE1" s="90"/>
       <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
       <c r="BH1" s="4"/>
@@ -7965,71 +7877,71 @@
       <c r="HO1" s="4"/>
     </row>
     <row r="2" spans="1:223" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="64" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="65" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="64" t="s">
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="66" t="s">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="89"/>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="91"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="92"/>
-      <c r="BE2" s="92"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="90"/>
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="90"/>
+      <c r="BE2" s="90"/>
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
@@ -8423,75 +8335,75 @@
       <c r="HO3" s="4"/>
     </row>
     <row r="4" spans="1:223" ht="13.65" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="93" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="93" t="s">
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="85" t="s">
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="85"/>
-      <c r="AR4" s="85"/>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="85"/>
-      <c r="AY4" s="85"/>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="85"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="83"/>
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
@@ -8660,63 +8572,63 @@
       <c r="HO4" s="4"/>
     </row>
     <row r="5" spans="1:223" ht="13.65" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="96"/>
-      <c r="AH5" s="96"/>
-      <c r="AI5" s="96"/>
-      <c r="AJ5" s="96"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="85"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="85"/>
-      <c r="AW5" s="85"/>
-      <c r="AX5" s="85"/>
-      <c r="AY5" s="85"/>
-      <c r="AZ5" s="85"/>
-      <c r="BA5" s="85"/>
-      <c r="BB5" s="85"/>
-      <c r="BC5" s="85"/>
-      <c r="BD5" s="85"/>
-      <c r="BE5" s="85"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="83"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="83"/>
+      <c r="AU5" s="83"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="83"/>
+      <c r="AX5" s="83"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="83"/>
+      <c r="BC5" s="83"/>
+      <c r="BD5" s="83"/>
+      <c r="BE5" s="83"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
@@ -8885,75 +8797,75 @@
       <c r="HO5" s="4"/>
     </row>
     <row r="6" spans="1:223" ht="12">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="76" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="67" t="s">
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="97" t="s">
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="100" t="s">
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="AB6" s="101"/>
-      <c r="AC6" s="101"/>
-      <c r="AD6" s="101"/>
-      <c r="AE6" s="101"/>
-      <c r="AF6" s="101"/>
-      <c r="AG6" s="101"/>
-      <c r="AH6" s="101"/>
-      <c r="AI6" s="101"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="103" t="s">
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="105"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="75"/>
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
@@ -9122,69 +9034,69 @@
       <c r="HO6" s="4"/>
     </row>
     <row r="7" spans="1:223" ht="12">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="97" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="100" t="s">
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="103" t="s">
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="AL7" s="104"/>
-      <c r="AM7" s="104"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="104"/>
-      <c r="AP7" s="104"/>
-      <c r="AQ7" s="104"/>
-      <c r="AR7" s="104"/>
-      <c r="AS7" s="104"/>
-      <c r="AT7" s="104"/>
-      <c r="AU7" s="104"/>
-      <c r="AV7" s="104"/>
-      <c r="AW7" s="104"/>
-      <c r="AX7" s="104"/>
-      <c r="AY7" s="104"/>
-      <c r="AZ7" s="104"/>
-      <c r="BA7" s="104"/>
-      <c r="BB7" s="104"/>
-      <c r="BC7" s="104"/>
-      <c r="BD7" s="104"/>
-      <c r="BE7" s="105"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="74"/>
+      <c r="BE7" s="75"/>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4"/>
       <c r="BT7" s="4"/>
@@ -9341,69 +9253,69 @@
       <c r="HO7" s="4"/>
     </row>
     <row r="8" spans="1:223" ht="12">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="97" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="100" t="s">
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="102"/>
-      <c r="AK8" s="103" t="s">
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="104"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="104"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="104"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
-      <c r="AX8" s="104"/>
-      <c r="AY8" s="104"/>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="104"/>
-      <c r="BB8" s="104"/>
-      <c r="BC8" s="104"/>
-      <c r="BD8" s="104"/>
-      <c r="BE8" s="105"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="75"/>
       <c r="BR8" s="4"/>
       <c r="BS8" s="4"/>
       <c r="BT8" s="4"/>
@@ -9560,71 +9472,71 @@
       <c r="HO8" s="4"/>
     </row>
     <row r="9" spans="1:223" ht="12">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="109" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="106" t="s">
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="100" t="s">
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="101"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="103" t="s">
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="104"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="104"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="104"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="104"/>
-      <c r="AY9" s="104"/>
-      <c r="AZ9" s="104"/>
-      <c r="BA9" s="104"/>
-      <c r="BB9" s="104"/>
-      <c r="BC9" s="104"/>
-      <c r="BD9" s="104"/>
-      <c r="BE9" s="105"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="75"/>
       <c r="BR9" s="4"/>
       <c r="BS9" s="4"/>
       <c r="BT9" s="4"/>
@@ -9781,1066 +9693,1105 @@
       <c r="HO9" s="4"/>
     </row>
     <row r="10" spans="1:223" ht="12">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="106" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="100" t="s">
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="101"/>
-      <c r="AF10" s="101"/>
-      <c r="AG10" s="101"/>
-      <c r="AH10" s="101"/>
-      <c r="AI10" s="101"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="103" t="s">
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="104"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="104"/>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="104"/>
-      <c r="AV10" s="104"/>
-      <c r="AW10" s="104"/>
-      <c r="AX10" s="104"/>
-      <c r="AY10" s="104"/>
-      <c r="AZ10" s="104"/>
-      <c r="BA10" s="104"/>
-      <c r="BB10" s="104"/>
-      <c r="BC10" s="104"/>
-      <c r="BD10" s="104"/>
-      <c r="BE10" s="105"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="75"/>
     </row>
     <row r="11" spans="1:223" ht="12">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="106" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="100" t="s">
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="101"/>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="101"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="103" t="s">
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="104"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="104"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="104"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="104"/>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="104"/>
-      <c r="AW11" s="104"/>
-      <c r="AX11" s="104"/>
-      <c r="AY11" s="104"/>
-      <c r="AZ11" s="104"/>
-      <c r="BA11" s="104"/>
-      <c r="BB11" s="104"/>
-      <c r="BC11" s="104"/>
-      <c r="BD11" s="104"/>
-      <c r="BE11" s="105"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="74"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="74"/>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="74"/>
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="74"/>
+      <c r="BE11" s="75"/>
     </row>
     <row r="12" spans="1:223" ht="12">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="97" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="100" t="s">
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="101"/>
-      <c r="AF12" s="101"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="101"/>
-      <c r="AJ12" s="102"/>
-      <c r="AK12" s="103" t="s">
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="AL12" s="104"/>
-      <c r="AM12" s="104"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="104"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="104"/>
-      <c r="AR12" s="104"/>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="104"/>
-      <c r="AU12" s="104"/>
-      <c r="AV12" s="104"/>
-      <c r="AW12" s="104"/>
-      <c r="AX12" s="104"/>
-      <c r="AY12" s="104"/>
-      <c r="AZ12" s="104"/>
-      <c r="BA12" s="104"/>
-      <c r="BB12" s="104"/>
-      <c r="BC12" s="104"/>
-      <c r="BD12" s="104"/>
-      <c r="BE12" s="105"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="74"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="75"/>
     </row>
     <row r="13" spans="1:223" ht="12">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="97" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="100" t="s">
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="101"/>
-      <c r="AI13" s="101"/>
-      <c r="AJ13" s="102"/>
-      <c r="AK13" s="103" t="s">
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="104"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="104"/>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="104"/>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="104"/>
-      <c r="AW13" s="104"/>
-      <c r="AX13" s="104"/>
-      <c r="AY13" s="104"/>
-      <c r="AZ13" s="104"/>
-      <c r="BA13" s="104"/>
-      <c r="BB13" s="104"/>
-      <c r="BC13" s="104"/>
-      <c r="BD13" s="104"/>
-      <c r="BE13" s="105"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="74"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="74"/>
+      <c r="AY13" s="74"/>
+      <c r="AZ13" s="74"/>
+      <c r="BA13" s="74"/>
+      <c r="BB13" s="74"/>
+      <c r="BC13" s="74"/>
+      <c r="BD13" s="74"/>
+      <c r="BE13" s="75"/>
     </row>
     <row r="14" spans="1:223" ht="12">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="97" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="100" t="s">
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="101"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="101"/>
-      <c r="AI14" s="101"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="103" t="s">
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="104"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="104"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="104"/>
-      <c r="AT14" s="104"/>
-      <c r="AU14" s="104"/>
-      <c r="AV14" s="104"/>
-      <c r="AW14" s="104"/>
-      <c r="AX14" s="104"/>
-      <c r="AY14" s="104"/>
-      <c r="AZ14" s="104"/>
-      <c r="BA14" s="104"/>
-      <c r="BB14" s="104"/>
-      <c r="BC14" s="104"/>
-      <c r="BD14" s="104"/>
-      <c r="BE14" s="105"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="74"/>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="75"/>
     </row>
     <row r="15" spans="1:223" ht="12">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="97" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="100" t="s">
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="101"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="103" t="s">
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="104"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="104"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="104"/>
-      <c r="AT15" s="104"/>
-      <c r="AU15" s="104"/>
-      <c r="AV15" s="104"/>
-      <c r="AW15" s="104"/>
-      <c r="AX15" s="104"/>
-      <c r="AY15" s="104"/>
-      <c r="AZ15" s="104"/>
-      <c r="BA15" s="104"/>
-      <c r="BB15" s="104"/>
-      <c r="BC15" s="104"/>
-      <c r="BD15" s="104"/>
-      <c r="BE15" s="105"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="74"/>
+      <c r="BD15" s="74"/>
+      <c r="BE15" s="75"/>
     </row>
     <row r="16" spans="1:223" ht="12">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="97" t="s">
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="100" t="s">
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="101"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="101"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="103" t="s">
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="104"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="104"/>
-      <c r="AY16" s="104"/>
-      <c r="AZ16" s="104"/>
-      <c r="BA16" s="104"/>
-      <c r="BB16" s="104"/>
-      <c r="BC16" s="104"/>
-      <c r="BD16" s="104"/>
-      <c r="BE16" s="105"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="74"/>
+      <c r="BC16" s="74"/>
+      <c r="BD16" s="74"/>
+      <c r="BE16" s="75"/>
     </row>
     <row r="17" spans="1:57" ht="12">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="67" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="97" t="s">
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="100" t="s">
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="101"/>
-      <c r="AJ17" s="102"/>
-      <c r="AK17" s="103" t="s">
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="104"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="104"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="104"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="104"/>
-      <c r="AW17" s="104"/>
-      <c r="AX17" s="104"/>
-      <c r="AY17" s="104"/>
-      <c r="AZ17" s="104"/>
-      <c r="BA17" s="104"/>
-      <c r="BB17" s="104"/>
-      <c r="BC17" s="104"/>
-      <c r="BD17" s="104"/>
-      <c r="BE17" s="105"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="74"/>
+      <c r="AZ17" s="74"/>
+      <c r="BA17" s="74"/>
+      <c r="BB17" s="74"/>
+      <c r="BC17" s="74"/>
+      <c r="BD17" s="74"/>
+      <c r="BE17" s="75"/>
     </row>
     <row r="18" spans="1:57" ht="12">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="97" t="s">
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="100" t="s">
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="101"/>
-      <c r="AE18" s="101"/>
-      <c r="AF18" s="101"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="101"/>
-      <c r="AJ18" s="102"/>
-      <c r="AK18" s="103" t="s">
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="104"/>
-      <c r="AP18" s="104"/>
-      <c r="AQ18" s="104"/>
-      <c r="AR18" s="104"/>
-      <c r="AS18" s="104"/>
-      <c r="AT18" s="104"/>
-      <c r="AU18" s="104"/>
-      <c r="AV18" s="104"/>
-      <c r="AW18" s="104"/>
-      <c r="AX18" s="104"/>
-      <c r="AY18" s="104"/>
-      <c r="AZ18" s="104"/>
-      <c r="BA18" s="104"/>
-      <c r="BB18" s="104"/>
-      <c r="BC18" s="104"/>
-      <c r="BD18" s="104"/>
-      <c r="BE18" s="105"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="74"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="74"/>
+      <c r="BC18" s="74"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="75"/>
     </row>
     <row r="19" spans="1:57" ht="12">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="97" t="s">
+      <c r="A19" s="107"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="100" t="s">
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="101"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="101"/>
-      <c r="AF19" s="101"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="101"/>
-      <c r="AJ19" s="102"/>
-      <c r="AK19" s="103" t="s">
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="104"/>
-      <c r="AP19" s="104"/>
-      <c r="AQ19" s="104"/>
-      <c r="AR19" s="104"/>
-      <c r="AS19" s="104"/>
-      <c r="AT19" s="104"/>
-      <c r="AU19" s="104"/>
-      <c r="AV19" s="104"/>
-      <c r="AW19" s="104"/>
-      <c r="AX19" s="104"/>
-      <c r="AY19" s="104"/>
-      <c r="AZ19" s="104"/>
-      <c r="BA19" s="104"/>
-      <c r="BB19" s="104"/>
-      <c r="BC19" s="104"/>
-      <c r="BD19" s="104"/>
-      <c r="BE19" s="105"/>
+      <c r="AL19" s="74"/>
+      <c r="AM19" s="74"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="74"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="74"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="74"/>
+      <c r="AT19" s="74"/>
+      <c r="AU19" s="74"/>
+      <c r="AV19" s="74"/>
+      <c r="AW19" s="74"/>
+      <c r="AX19" s="74"/>
+      <c r="AY19" s="74"/>
+      <c r="AZ19" s="74"/>
+      <c r="BA19" s="74"/>
+      <c r="BB19" s="74"/>
+      <c r="BC19" s="74"/>
+      <c r="BD19" s="74"/>
+      <c r="BE19" s="75"/>
     </row>
     <row r="20" spans="1:57" ht="12">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="67" t="s">
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="97" t="s">
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="100" t="s">
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="101"/>
-      <c r="AE20" s="101"/>
-      <c r="AF20" s="101"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="101"/>
-      <c r="AJ20" s="102"/>
-      <c r="AK20" s="103" t="s">
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="104"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="104"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="104"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="104"/>
-      <c r="AW20" s="104"/>
-      <c r="AX20" s="104"/>
-      <c r="AY20" s="104"/>
-      <c r="AZ20" s="104"/>
-      <c r="BA20" s="104"/>
-      <c r="BB20" s="104"/>
-      <c r="BC20" s="104"/>
-      <c r="BD20" s="104"/>
-      <c r="BE20" s="105"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="74"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="75"/>
     </row>
     <row r="21" spans="1:57" ht="12">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="97" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="100" t="s">
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="101"/>
-      <c r="AE21" s="101"/>
-      <c r="AF21" s="101"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="101"/>
-      <c r="AJ21" s="102"/>
-      <c r="AK21" s="103" t="s">
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="104"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="104"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="104"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
-      <c r="AX21" s="104"/>
-      <c r="AY21" s="104"/>
-      <c r="AZ21" s="104"/>
-      <c r="BA21" s="104"/>
-      <c r="BB21" s="104"/>
-      <c r="BC21" s="104"/>
-      <c r="BD21" s="104"/>
-      <c r="BE21" s="105"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="75"/>
     </row>
     <row r="22" spans="1:57" ht="12">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="97" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="100" t="s">
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="101"/>
-      <c r="AE22" s="101"/>
-      <c r="AF22" s="101"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="101"/>
-      <c r="AJ22" s="102"/>
-      <c r="AK22" s="103" t="s">
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="104"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="104"/>
-      <c r="AP22" s="104"/>
-      <c r="AQ22" s="104"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="104"/>
-      <c r="AU22" s="104"/>
-      <c r="AV22" s="104"/>
-      <c r="AW22" s="104"/>
-      <c r="AX22" s="104"/>
-      <c r="AY22" s="104"/>
-      <c r="AZ22" s="104"/>
-      <c r="BA22" s="104"/>
-      <c r="BB22" s="104"/>
-      <c r="BC22" s="104"/>
-      <c r="BD22" s="104"/>
-      <c r="BE22" s="105"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="74"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="74"/>
+      <c r="BB22" s="74"/>
+      <c r="BC22" s="74"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="75"/>
     </row>
     <row r="23" spans="1:57" ht="12">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="97" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="100" t="s">
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="101"/>
-      <c r="AJ23" s="102"/>
-      <c r="AK23" s="103" t="s">
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="AL23" s="104"/>
-      <c r="AM23" s="104"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="104"/>
-      <c r="AP23" s="104"/>
-      <c r="AQ23" s="104"/>
-      <c r="AR23" s="104"/>
-      <c r="AS23" s="104"/>
-      <c r="AT23" s="104"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="104"/>
-      <c r="AW23" s="104"/>
-      <c r="AX23" s="104"/>
-      <c r="AY23" s="104"/>
-      <c r="AZ23" s="104"/>
-      <c r="BA23" s="104"/>
-      <c r="BB23" s="104"/>
-      <c r="BC23" s="104"/>
-      <c r="BD23" s="104"/>
-      <c r="BE23" s="105"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="74"/>
+      <c r="BA23" s="74"/>
+      <c r="BB23" s="74"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="74"/>
+      <c r="BE23" s="75"/>
     </row>
     <row r="24" spans="1:57" ht="12">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="97" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="100" t="s">
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="102"/>
-      <c r="AK24" s="103" t="s">
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="AL24" s="104"/>
-      <c r="AM24" s="104"/>
-      <c r="AN24" s="104"/>
-      <c r="AO24" s="104"/>
-      <c r="AP24" s="104"/>
-      <c r="AQ24" s="104"/>
-      <c r="AR24" s="104"/>
-      <c r="AS24" s="104"/>
-      <c r="AT24" s="104"/>
-      <c r="AU24" s="104"/>
-      <c r="AV24" s="104"/>
-      <c r="AW24" s="104"/>
-      <c r="AX24" s="104"/>
-      <c r="AY24" s="104"/>
-      <c r="AZ24" s="104"/>
-      <c r="BA24" s="104"/>
-      <c r="BB24" s="104"/>
-      <c r="BC24" s="104"/>
-      <c r="BD24" s="104"/>
-      <c r="BE24" s="105"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="74"/>
+      <c r="BA24" s="74"/>
+      <c r="BB24" s="74"/>
+      <c r="BC24" s="74"/>
+      <c r="BD24" s="74"/>
+      <c r="BE24" s="75"/>
     </row>
     <row r="25" spans="1:57" ht="12">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="97" t="s">
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="100" t="s">
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="101"/>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="101"/>
-      <c r="AJ25" s="102"/>
-      <c r="AK25" s="103" t="s">
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="AL25" s="104"/>
-      <c r="AM25" s="104"/>
-      <c r="AN25" s="104"/>
-      <c r="AO25" s="104"/>
-      <c r="AP25" s="104"/>
-      <c r="AQ25" s="104"/>
-      <c r="AR25" s="104"/>
-      <c r="AS25" s="104"/>
-      <c r="AT25" s="104"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="104"/>
-      <c r="AW25" s="104"/>
-      <c r="AX25" s="104"/>
-      <c r="AY25" s="104"/>
-      <c r="AZ25" s="104"/>
-      <c r="BA25" s="104"/>
-      <c r="BB25" s="104"/>
-      <c r="BC25" s="104"/>
-      <c r="BD25" s="104"/>
-      <c r="BE25" s="105"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="74"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="74"/>
+      <c r="BA25" s="74"/>
+      <c r="BB25" s="74"/>
+      <c r="BC25" s="74"/>
+      <c r="BD25" s="74"/>
+      <c r="BE25" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="AA17:AJ17"/>
-    <mergeCell ref="AA6:AJ6"/>
-    <mergeCell ref="AK6:BE6"/>
-    <mergeCell ref="R12:Z12"/>
-    <mergeCell ref="AK16:BE16"/>
-    <mergeCell ref="R7:Z7"/>
-    <mergeCell ref="AA7:AJ7"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="AK14:BE14"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AA15:AJ15"/>
-    <mergeCell ref="AK15:BE15"/>
-    <mergeCell ref="AK7:BE7"/>
-    <mergeCell ref="AA12:AJ12"/>
-    <mergeCell ref="AK12:BE12"/>
+    <mergeCell ref="K17:Q19"/>
+    <mergeCell ref="D6:J25"/>
+    <mergeCell ref="A6:C25"/>
+    <mergeCell ref="K20:Q25"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="R18:Z18"/>
+    <mergeCell ref="R24:Z24"/>
+    <mergeCell ref="R25:Z25"/>
+    <mergeCell ref="K6:Q8"/>
+    <mergeCell ref="K9:Q16"/>
+    <mergeCell ref="R17:Z17"/>
+    <mergeCell ref="R16:Z16"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AK4:BE5"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="AZ1:BE1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="R4:Z5"/>
+    <mergeCell ref="AA4:AJ5"/>
+    <mergeCell ref="AA18:AJ18"/>
+    <mergeCell ref="AK18:BE18"/>
+    <mergeCell ref="R8:Z8"/>
+    <mergeCell ref="AA8:AJ8"/>
+    <mergeCell ref="AK8:BE8"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="AA13:AJ13"/>
+    <mergeCell ref="AK13:BE13"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="AA10:AJ10"/>
+    <mergeCell ref="AK10:BE10"/>
+    <mergeCell ref="R11:Z11"/>
+    <mergeCell ref="AA11:AJ11"/>
+    <mergeCell ref="AK11:BE11"/>
+    <mergeCell ref="R9:Z9"/>
+    <mergeCell ref="AA14:AJ14"/>
+    <mergeCell ref="AA24:AJ24"/>
+    <mergeCell ref="AK24:BE24"/>
+    <mergeCell ref="R22:Z22"/>
+    <mergeCell ref="AA22:AJ22"/>
+    <mergeCell ref="AK22:BE22"/>
+    <mergeCell ref="R23:Z23"/>
+    <mergeCell ref="AA23:AJ23"/>
+    <mergeCell ref="AK23:BE23"/>
     <mergeCell ref="AA25:AJ25"/>
     <mergeCell ref="AK25:BE25"/>
     <mergeCell ref="AA9:AJ9"/>
@@ -10857,66 +10808,26 @@
     <mergeCell ref="AK17:BE17"/>
     <mergeCell ref="AA16:AJ16"/>
     <mergeCell ref="R14:Z14"/>
-    <mergeCell ref="AA24:AJ24"/>
-    <mergeCell ref="AK24:BE24"/>
-    <mergeCell ref="R22:Z22"/>
-    <mergeCell ref="AA22:AJ22"/>
-    <mergeCell ref="AK22:BE22"/>
-    <mergeCell ref="R23:Z23"/>
-    <mergeCell ref="AA23:AJ23"/>
-    <mergeCell ref="AK23:BE23"/>
-    <mergeCell ref="AA18:AJ18"/>
-    <mergeCell ref="AK18:BE18"/>
-    <mergeCell ref="R8:Z8"/>
-    <mergeCell ref="AA8:AJ8"/>
-    <mergeCell ref="AK8:BE8"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="AA13:AJ13"/>
-    <mergeCell ref="AK13:BE13"/>
-    <mergeCell ref="R10:Z10"/>
-    <mergeCell ref="AA10:AJ10"/>
-    <mergeCell ref="AK10:BE10"/>
-    <mergeCell ref="R11:Z11"/>
-    <mergeCell ref="AA11:AJ11"/>
-    <mergeCell ref="AK11:BE11"/>
-    <mergeCell ref="R9:Z9"/>
-    <mergeCell ref="AA14:AJ14"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AK4:BE5"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="AZ1:BE1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="R4:Z5"/>
-    <mergeCell ref="AA4:AJ5"/>
-    <mergeCell ref="K17:Q19"/>
-    <mergeCell ref="D6:J25"/>
-    <mergeCell ref="A6:C25"/>
-    <mergeCell ref="K20:Q25"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="R18:Z18"/>
-    <mergeCell ref="R24:Z24"/>
-    <mergeCell ref="R25:Z25"/>
-    <mergeCell ref="K6:Q8"/>
-    <mergeCell ref="K9:Q16"/>
-    <mergeCell ref="R17:Z17"/>
-    <mergeCell ref="R16:Z16"/>
+    <mergeCell ref="AA17:AJ17"/>
+    <mergeCell ref="AA6:AJ6"/>
+    <mergeCell ref="AK6:BE6"/>
+    <mergeCell ref="R12:Z12"/>
+    <mergeCell ref="AK16:BE16"/>
+    <mergeCell ref="R7:Z7"/>
+    <mergeCell ref="AA7:AJ7"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="AK14:BE14"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AA15:AJ15"/>
+    <mergeCell ref="AK15:BE15"/>
+    <mergeCell ref="AK7:BE7"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AK12:BE12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59015748031496063" right="0.59015748031496063" top="0.8271653543307087" bottom="1.2208661417322835" header="0.78740157480314954" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="57" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>